--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A89E47-D7AC-48C5-BE50-615FD18E90BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC50CA-D966-4ECD-B69C-8683699EE533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="203">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,6 +795,21 @@
   </si>
   <si>
     <t>현상수배노리개1</t>
+  </si>
+  <si>
+    <t>현상수배노리개3</t>
+  </si>
+  <si>
+    <t>현상수배검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배노리개2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1228,11 +1243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q192"/>
+  <dimension ref="A1:Q196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11431,6 +11446,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>191</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193" s="3">
+        <v>3</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E193" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F193" s="3">
+        <v>60</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0</v>
+      </c>
+      <c r="H193" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I193" s="3">
+        <v>27</v>
+      </c>
+      <c r="J193" s="3">
+        <v>0</v>
+      </c>
+      <c r="K193" s="3">
+        <v>30</v>
+      </c>
+      <c r="L193" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M193" s="3">
+        <v>0</v>
+      </c>
+      <c r="N193" s="3">
+        <v>0</v>
+      </c>
+      <c r="O193" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P193" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>192</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C194" s="3">
+        <v>3</v>
+      </c>
+      <c r="D194" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F194" s="3">
+        <v>60</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
+      <c r="H194" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I194" s="3">
+        <v>27</v>
+      </c>
+      <c r="J194" s="3">
+        <v>0</v>
+      </c>
+      <c r="K194" s="3">
+        <v>30</v>
+      </c>
+      <c r="L194" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M194" s="3">
+        <v>0</v>
+      </c>
+      <c r="N194" s="3">
+        <v>0</v>
+      </c>
+      <c r="O194" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P194" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>193</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C195" s="3">
+        <v>4</v>
+      </c>
+      <c r="D195" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E195" s="3">
+        <v>3300000</v>
+      </c>
+      <c r="F195" s="3">
+        <v>60</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="3">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="I195" s="3">
+        <v>4</v>
+      </c>
+      <c r="J195" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="K195" s="3">
+        <v>290000</v>
+      </c>
+      <c r="L195" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M195" s="3">
+        <v>0</v>
+      </c>
+      <c r="N195" s="3">
+        <v>0</v>
+      </c>
+      <c r="O195" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P195" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>194</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196" s="3">
+        <v>4</v>
+      </c>
+      <c r="D196" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E196" s="3">
+        <v>3400000</v>
+      </c>
+      <c r="F196" s="3">
+        <v>60</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I196" s="3">
+        <v>4</v>
+      </c>
+      <c r="J196" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="K196" s="3">
+        <v>295000</v>
+      </c>
+      <c r="L196" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M196" s="3">
+        <v>0</v>
+      </c>
+      <c r="N196" s="3">
+        <v>0</v>
+      </c>
+      <c r="O196" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P196" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC50CA-D966-4ECD-B69C-8683699EE533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA880AA-C875-4BE0-9E30-16B5BDA35D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="207">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,6 +810,18 @@
   <si>
     <t>현상수배노리개2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배검4</t>
+  </si>
+  <si>
+    <t>현상수배검5</t>
+  </si>
+  <si>
+    <t>현상수배노리개4</t>
+  </si>
+  <si>
+    <t>현상수배노리개5</t>
   </si>
 </sst>
 </file>
@@ -1243,11 +1255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q196"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
+      <selection pane="bottomLeft" activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11658,6 +11670,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>195</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C197" s="3">
+        <v>3</v>
+      </c>
+      <c r="D197" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F197" s="3">
+        <v>60</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I197" s="3">
+        <v>27</v>
+      </c>
+      <c r="J197" s="3">
+        <v>0</v>
+      </c>
+      <c r="K197" s="3">
+        <v>30</v>
+      </c>
+      <c r="L197" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M197" s="3">
+        <v>0</v>
+      </c>
+      <c r="N197" s="3">
+        <v>0</v>
+      </c>
+      <c r="O197" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P197" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>196</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C198" s="3">
+        <v>3</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F198" s="3">
+        <v>60</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I198" s="3">
+        <v>27</v>
+      </c>
+      <c r="J198" s="3">
+        <v>0</v>
+      </c>
+      <c r="K198" s="3">
+        <v>30</v>
+      </c>
+      <c r="L198" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M198" s="3">
+        <v>0</v>
+      </c>
+      <c r="N198" s="3">
+        <v>0</v>
+      </c>
+      <c r="O198" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P198" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>197</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C199" s="3">
+        <v>4</v>
+      </c>
+      <c r="D199" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E199" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="F199" s="3">
+        <v>60</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I199" s="3">
+        <v>4</v>
+      </c>
+      <c r="J199" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K199" s="3">
+        <v>300000</v>
+      </c>
+      <c r="L199" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M199" s="3">
+        <v>0</v>
+      </c>
+      <c r="N199" s="3">
+        <v>0</v>
+      </c>
+      <c r="O199" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P199" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>198</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C200" s="3">
+        <v>4</v>
+      </c>
+      <c r="D200" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E200" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="F200" s="3">
+        <v>60</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I200" s="3">
+        <v>4</v>
+      </c>
+      <c r="J200" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="K200" s="3">
+        <v>305000</v>
+      </c>
+      <c r="L200" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M200" s="3">
+        <v>0</v>
+      </c>
+      <c r="N200" s="3">
+        <v>0</v>
+      </c>
+      <c r="O200" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P200" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA880AA-C875-4BE0-9E30-16B5BDA35D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA6B4BB-B987-4985-A426-E85F74810330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="211">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -822,6 +822,18 @@
   </si>
   <si>
     <t>현상수배노리개5</t>
+  </si>
+  <si>
+    <t>현상수배검6</t>
+  </si>
+  <si>
+    <t>현상수배검7</t>
+  </si>
+  <si>
+    <t>현상수배노리개6</t>
+  </si>
+  <si>
+    <t>현상수배노리개7</t>
   </si>
 </sst>
 </file>
@@ -1255,11 +1267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:Q204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G208" sqref="G208"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11882,6 +11894,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>199</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C201" s="3">
+        <v>3</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F201" s="3">
+        <v>60</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="3">
+        <v>2.75E-2</v>
+      </c>
+      <c r="I201" s="3">
+        <v>27</v>
+      </c>
+      <c r="J201" s="3">
+        <v>0</v>
+      </c>
+      <c r="K201" s="3">
+        <v>30</v>
+      </c>
+      <c r="L201" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M201" s="3">
+        <v>0</v>
+      </c>
+      <c r="N201" s="3">
+        <v>0</v>
+      </c>
+      <c r="O201" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P201" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>200</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C202" s="3">
+        <v>3</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F202" s="3">
+        <v>60</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="3">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="I202" s="3">
+        <v>27</v>
+      </c>
+      <c r="J202" s="3">
+        <v>0</v>
+      </c>
+      <c r="K202" s="3">
+        <v>30</v>
+      </c>
+      <c r="L202" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M202" s="3">
+        <v>0</v>
+      </c>
+      <c r="N202" s="3">
+        <v>0</v>
+      </c>
+      <c r="O202" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P202" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>201</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" s="3">
+        <v>4</v>
+      </c>
+      <c r="D203" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E203" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="F203" s="3">
+        <v>60</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I203" s="3">
+        <v>4</v>
+      </c>
+      <c r="J203" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="K203" s="3">
+        <v>310000</v>
+      </c>
+      <c r="L203" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M203" s="3">
+        <v>0</v>
+      </c>
+      <c r="N203" s="3">
+        <v>0</v>
+      </c>
+      <c r="O203" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P203" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>202</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C204" s="3">
+        <v>4</v>
+      </c>
+      <c r="D204" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E204" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="F204" s="3">
+        <v>60</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I204" s="3">
+        <v>4</v>
+      </c>
+      <c r="J204" s="3">
+        <v>5300000</v>
+      </c>
+      <c r="K204" s="3">
+        <v>315000</v>
+      </c>
+      <c r="L204" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M204" s="3">
+        <v>0</v>
+      </c>
+      <c r="N204" s="3">
+        <v>0</v>
+      </c>
+      <c r="O204" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P204" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA6B4BB-B987-4985-A426-E85F74810330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43999531-DDE3-4D2B-9C89-2ABAB89646EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="213">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -834,6 +834,12 @@
   </si>
   <si>
     <t>현상수배노리개7</t>
+  </si>
+  <si>
+    <t>현상수배노리개8</t>
+  </si>
+  <si>
+    <t>현상수배검8</t>
   </si>
 </sst>
 </file>
@@ -1267,11 +1273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q204"/>
+  <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
+      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12106,6 +12112,112 @@
         <v>0</v>
       </c>
     </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>203</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C205" s="3">
+        <v>3</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E205" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F205" s="3">
+        <v>60</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="3">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I205" s="3">
+        <v>27</v>
+      </c>
+      <c r="J205" s="3">
+        <v>0</v>
+      </c>
+      <c r="K205" s="3">
+        <v>30</v>
+      </c>
+      <c r="L205" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M205" s="3">
+        <v>0</v>
+      </c>
+      <c r="N205" s="3">
+        <v>0</v>
+      </c>
+      <c r="O205" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P205" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>204</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206" s="3">
+        <v>4</v>
+      </c>
+      <c r="D206" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E206" s="3">
+        <v>3900000</v>
+      </c>
+      <c r="F206" s="3">
+        <v>60</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="3">
+        <v>1.35E-2</v>
+      </c>
+      <c r="I206" s="3">
+        <v>4</v>
+      </c>
+      <c r="J206" s="3">
+        <v>5400000</v>
+      </c>
+      <c r="K206" s="3">
+        <v>320000</v>
+      </c>
+      <c r="L206" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M206" s="3">
+        <v>0</v>
+      </c>
+      <c r="N206" s="3">
+        <v>0</v>
+      </c>
+      <c r="O206" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P206" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q206" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43999531-DDE3-4D2B-9C89-2ABAB89646EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CF0D91-4C03-411F-9AEE-2969A1091FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
+    <sheet name="Balance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="220">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,6 +841,34 @@
   </si>
   <si>
     <t>현상수배검8</t>
+  </si>
+  <si>
+    <t>현상수배검9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배노리개9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배검10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배노리개10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진 귀살베기 총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1273,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q206"/>
+  <dimension ref="A1:Q210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12218,10 +12247,902 @@
         <v>0</v>
       </c>
     </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>205</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C207" s="3">
+        <v>3</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F207" s="3">
+        <v>80</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I207" s="3">
+        <v>27</v>
+      </c>
+      <c r="J207" s="3">
+        <v>0</v>
+      </c>
+      <c r="K207" s="3">
+        <v>30</v>
+      </c>
+      <c r="L207" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M207" s="3">
+        <v>0</v>
+      </c>
+      <c r="N207" s="3">
+        <v>0</v>
+      </c>
+      <c r="O207" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P207" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>206</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C208" s="3">
+        <v>4</v>
+      </c>
+      <c r="D208" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E208" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="F208" s="3">
+        <v>80</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="3">
+        <v>1.25E-3</v>
+      </c>
+      <c r="I208" s="3">
+        <v>4</v>
+      </c>
+      <c r="J208" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="K208" s="3">
+        <v>325000</v>
+      </c>
+      <c r="L208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M208" s="3">
+        <v>0</v>
+      </c>
+      <c r="N208" s="3">
+        <v>0</v>
+      </c>
+      <c r="O208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P208" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>207</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C209" s="3">
+        <v>3</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E209" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F209" s="3">
+        <v>80</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I209" s="3">
+        <v>27</v>
+      </c>
+      <c r="J209" s="3">
+        <v>0</v>
+      </c>
+      <c r="K209" s="3">
+        <v>30</v>
+      </c>
+      <c r="L209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M209" s="3">
+        <v>0</v>
+      </c>
+      <c r="N209" s="3">
+        <v>0</v>
+      </c>
+      <c r="O209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P209" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>208</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C210" s="3">
+        <v>4</v>
+      </c>
+      <c r="D210" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E210" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="F210" s="3">
+        <v>80</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I210" s="3">
+        <v>4</v>
+      </c>
+      <c r="J210" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="K210" s="3">
+        <v>333000</v>
+      </c>
+      <c r="L210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M210" s="3">
+        <v>0</v>
+      </c>
+      <c r="N210" s="3">
+        <v>0</v>
+      </c>
+      <c r="O210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P210" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
+  <dimension ref="C5:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f>F6</f>
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <f>E6/10000</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>F6/20000</f>
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <f>IF(D7=1,E7+F6,F7+E6)</f>
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <f>100*(G7-G6)/G6</f>
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J29" si="0">E7/10000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K29" si="1">F7/20000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G29" si="2">IF(D8=1,E8+F7,F8+E7)</f>
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H29" si="3">100*(G8-G7)/G7</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>150</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>400</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>400</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>600</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>800</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>800</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1100</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>18.75</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1100</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1500</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>2600</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1500</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CF0D91-4C03-411F-9AEE-2969A1091FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A066B54-4AAE-4696-80EF-EDCA3D585B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="222">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -868,6 +868,14 @@
   </si>
   <si>
     <t>진 귀살베기 총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배검11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배노리개11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,11 +1310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q210"/>
+  <dimension ref="A1:Q212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H208" sqref="H208"/>
+      <selection pane="bottomLeft" activeCell="K211" sqref="K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12438,7 +12446,7 @@
         <v>5600000</v>
       </c>
       <c r="K210" s="3">
-        <v>333000</v>
+        <v>330000</v>
       </c>
       <c r="L210" s="3">
         <v>-1</v>
@@ -12456,6 +12464,112 @@
         <v>0</v>
       </c>
       <c r="Q210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>209</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C211" s="3">
+        <v>3</v>
+      </c>
+      <c r="D211" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F211" s="3">
+        <v>80</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I211" s="3">
+        <v>27</v>
+      </c>
+      <c r="J211" s="3">
+        <v>0</v>
+      </c>
+      <c r="K211" s="3">
+        <v>30</v>
+      </c>
+      <c r="L211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M211" s="3">
+        <v>0</v>
+      </c>
+      <c r="N211" s="3">
+        <v>0</v>
+      </c>
+      <c r="O211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P211" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>210</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C212" s="3">
+        <v>4</v>
+      </c>
+      <c r="D212" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E212" s="3">
+        <v>4200000</v>
+      </c>
+      <c r="F212" s="3">
+        <v>80</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="3">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="I212" s="3">
+        <v>4</v>
+      </c>
+      <c r="J212" s="3">
+        <v>5700000</v>
+      </c>
+      <c r="K212" s="3">
+        <v>335000</v>
+      </c>
+      <c r="L212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M212" s="3">
+        <v>0</v>
+      </c>
+      <c r="N212" s="3">
+        <v>0</v>
+      </c>
+      <c r="O212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P212" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q212" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A066B54-4AAE-4696-80EF-EDCA3D585B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203B7F16-E01D-457B-93A1-C1633D5E9818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="224">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,6 +876,14 @@
   </si>
   <si>
     <t>현상수배노리개11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인노리개0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1310,11 +1318,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q212"/>
+  <dimension ref="A1:Q214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K211" sqref="K211"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12573,6 +12581,112 @@
         <v>0</v>
       </c>
     </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>211</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C213" s="3">
+        <v>3</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F213" s="3">
+        <v>80</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I213" s="3">
+        <v>27</v>
+      </c>
+      <c r="J213" s="3">
+        <v>0</v>
+      </c>
+      <c r="K213" s="3">
+        <v>30</v>
+      </c>
+      <c r="L213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M213" s="3">
+        <v>0</v>
+      </c>
+      <c r="N213" s="3">
+        <v>0</v>
+      </c>
+      <c r="O213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P213" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>212</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C214" s="3">
+        <v>4</v>
+      </c>
+      <c r="D214" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E214" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="F214" s="3">
+        <v>80</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I214" s="3">
+        <v>4</v>
+      </c>
+      <c r="J214" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="K214" s="3">
+        <v>340000</v>
+      </c>
+      <c r="L214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M214" s="3">
+        <v>0</v>
+      </c>
+      <c r="N214" s="3">
+        <v>0</v>
+      </c>
+      <c r="O214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P214" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q214" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203B7F16-E01D-457B-93A1-C1633D5E9818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33347642-918F-44EC-8224-C25EFE704D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="226">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -884,6 +884,14 @@
   </si>
   <si>
     <t>용인노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인노리개1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q214"/>
+  <dimension ref="A1:Q216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12687,6 +12695,112 @@
         <v>0</v>
       </c>
     </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>213</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C215" s="3">
+        <v>3</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F215" s="3">
+        <v>80</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I215" s="3">
+        <v>27</v>
+      </c>
+      <c r="J215" s="3">
+        <v>0</v>
+      </c>
+      <c r="K215" s="3">
+        <v>30</v>
+      </c>
+      <c r="L215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M215" s="3">
+        <v>0</v>
+      </c>
+      <c r="N215" s="3">
+        <v>0</v>
+      </c>
+      <c r="O215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P215" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>214</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C216" s="3">
+        <v>4</v>
+      </c>
+      <c r="D216" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E216" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="F216" s="3">
+        <v>80</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="3">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="I216" s="3">
+        <v>4</v>
+      </c>
+      <c r="J216" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="K216" s="3">
+        <v>340000</v>
+      </c>
+      <c r="L216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M216" s="3">
+        <v>0</v>
+      </c>
+      <c r="N216" s="3">
+        <v>0</v>
+      </c>
+      <c r="O216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P216" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q216" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33347642-918F-44EC-8224-C25EFE704D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96B6DC-317C-4886-9A28-FACF05D6EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="229">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,6 +892,18 @@
   </si>
   <si>
     <t>용인노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복붙용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인노리개2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -974,6 +986,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -997,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,6 +1026,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,16 +1347,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q216"/>
+  <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.75" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
@@ -12400,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="3">
-        <v>7.4999999999999997E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I209" s="3">
         <v>27</v>
@@ -12506,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="3">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I211" s="3">
         <v>27</v>
@@ -12559,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="3">
-        <v>3.7499999999999999E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I212" s="3">
         <v>4</v>
@@ -12612,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="H213" s="3">
-        <v>1.2500000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I213" s="3">
         <v>27</v>
@@ -12665,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="H214" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="I214" s="3">
         <v>4</v>
@@ -12718,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="H215" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I215" s="3">
         <v>27</v>
@@ -12762,7 +12783,7 @@
         <v>40000000</v>
       </c>
       <c r="E216" s="3">
-        <v>4300000</v>
+        <v>4400000</v>
       </c>
       <c r="F216" s="3">
         <v>80</v>
@@ -12771,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="3">
-        <v>6.2500000000000003E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I216" s="3">
         <v>4</v>
@@ -12798,6 +12819,114 @@
         <v>0</v>
       </c>
       <c r="Q216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <f>ROW()-2</f>
+        <v>215</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C217" s="3">
+        <v>3</v>
+      </c>
+      <c r="D217" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E217" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F217" s="3">
+        <v>80</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I217" s="3">
+        <v>27</v>
+      </c>
+      <c r="J217" s="3">
+        <v>0</v>
+      </c>
+      <c r="K217" s="3">
+        <v>30</v>
+      </c>
+      <c r="L217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M217" s="3">
+        <v>0</v>
+      </c>
+      <c r="N217" s="3">
+        <v>0</v>
+      </c>
+      <c r="O217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P217" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <f>ROW()-2</f>
+        <v>216</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C218" s="3">
+        <v>4</v>
+      </c>
+      <c r="D218" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E218" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="F218" s="3">
+        <v>80</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
+      <c r="H218" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I218" s="3">
+        <v>4</v>
+      </c>
+      <c r="J218" s="3">
+        <v>5900000</v>
+      </c>
+      <c r="K218" s="3">
+        <v>345000</v>
+      </c>
+      <c r="L218" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M218" s="3">
+        <v>0</v>
+      </c>
+      <c r="N218" s="3">
+        <v>0</v>
+      </c>
+      <c r="O218" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P218" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q218" s="3">
         <v>0</v>
       </c>
     </row>
@@ -12811,18 +12940,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
-  <dimension ref="C5:K29"/>
+  <dimension ref="C5:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="O6" sqref="O6:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>217</v>
       </c>
@@ -12838,8 +12968,11 @@
       <c r="K5" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O5" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>1</v>
       </c>
@@ -12861,8 +12994,19 @@
         <f>F6/20000</f>
         <v>1.25E-3</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="str">
+        <f>WeaponEffect!B207</f>
+        <v>현상수배검9</v>
+      </c>
+      <c r="O6">
+        <f>IF((MOD(C6,2))=1,J7,K5)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>2</v>
       </c>
@@ -12888,8 +13032,19 @@
         <f t="shared" ref="K7:K29" si="1">F7/20000</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="str">
+        <f>WeaponEffect!B208</f>
+        <v>현상수배노리개9</v>
+      </c>
+      <c r="O7">
+        <f>IF((MOD(C7,2))=1,J8,K6)</f>
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>3</v>
       </c>
@@ -12915,8 +13070,19 @@
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="str">
+        <f>WeaponEffect!B209</f>
+        <v>현상수배검10</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O29" si="4">IF((MOD(C8,2))=1,J9,K7)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>4</v>
       </c>
@@ -12924,26 +13090,37 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="str">
+        <f>WeaponEffect!B210</f>
+        <v>현상수배노리개10</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>5</v>
       </c>
@@ -12951,15 +13128,15 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
@@ -12967,10 +13144,21 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>3.7499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="str">
+        <f>WeaponEffect!B211</f>
+        <v>현상수배검11</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>6</v>
       </c>
@@ -12978,26 +13166,37 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>16.666666666666668</v>
+        <v>38.888888888888886</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11" t="str">
+        <f>WeaponEffect!B212</f>
+        <v>현상수배노리개11</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>7</v>
       </c>
@@ -13005,15 +13204,15 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>14.285714285714286</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -13021,10 +13220,21 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12" t="str">
+        <f>WeaponEffect!B213</f>
+        <v>용인검0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>8</v>
       </c>
@@ -13032,26 +13242,37 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13" t="str">
+        <f>WeaponEffect!B214</f>
+        <v>용인노리개0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>9</v>
       </c>
@@ -13059,15 +13280,15 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>37.5</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -13075,10 +13296,21 @@
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14" t="str">
+        <f>WeaponEffect!B215</f>
+        <v>용인검1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>10</v>
       </c>
@@ -13086,26 +13318,37 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>16.666666666666668</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" t="str">
+        <f>WeaponEffect!B216</f>
+        <v>용인노리개1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>11</v>
       </c>
@@ -13113,15 +13356,15 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>14.285714285714286</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -13129,10 +13372,21 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16" t="str">
+        <f>WeaponEffect!B217</f>
+        <v>용인검2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>12</v>
       </c>
@@ -13140,26 +13394,37 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="N17" t="str">
+        <f>WeaponEffect!B218</f>
+        <v>용인노리개2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>13</v>
       </c>
@@ -13167,15 +13432,15 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -13183,10 +13448,21 @@
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <f>WeaponEffect!B219</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>14</v>
       </c>
@@ -13194,26 +13470,37 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>16.666666666666668</v>
+        <v>31.25</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <f>WeaponEffect!B220</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>15</v>
       </c>
@@ -13221,15 +13508,15 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>14.285714285714286</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -13237,10 +13524,21 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <f>WeaponEffect!B221</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>16</v>
       </c>
@@ -13248,26 +13546,37 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <f>WeaponEffect!B222</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>17</v>
       </c>
@@ -13275,15 +13584,15 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>4500</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -13291,10 +13600,21 @@
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <f>WeaponEffect!B223</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>18</v>
       </c>
@@ -13302,26 +13622,37 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>5500</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>16.666666666666668</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <f>WeaponEffect!B224</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>19</v>
       </c>
@@ -13329,15 +13660,15 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>14.285714285714286</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -13345,10 +13676,21 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <f>WeaponEffect!B225</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>20</v>
       </c>
@@ -13356,26 +13698,37 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>1900</v>
+        <v>9000</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>18.75</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <f>WeaponEffect!B226</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>21</v>
       </c>
@@ -13383,15 +13736,15 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1100</v>
+        <v>7000</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>2200</v>
+        <v>12000</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>15.789473684210526</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
@@ -13399,10 +13752,21 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+      <c r="M26">
+        <v>21</v>
+      </c>
+      <c r="N26">
+        <f>WeaponEffect!B227</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>22</v>
       </c>
@@ -13410,26 +13774,37 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>16000</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>18.181818181818183</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.9</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>22</v>
+      </c>
+      <c r="N27">
+        <f>WeaponEffect!B228</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>23</v>
       </c>
@@ -13437,15 +13812,15 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1500</v>
+        <v>12000</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>21000</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>15.384615384615385</v>
+        <v>31.25</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
@@ -13453,10 +13828,21 @@
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+      <c r="M28">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <f>WeaponEffect!B229</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>24</v>
       </c>
@@ -13464,23 +13850,34 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>27000</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>16.666666666666668</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="M29">
+        <v>24</v>
+      </c>
+      <c r="N29">
+        <f>WeaponEffect!B230</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96B6DC-317C-4886-9A28-FACF05D6EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6DEC0F-E02C-4C5E-B590-9A5104026EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="231">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,6 +905,12 @@
   <si>
     <t>용인노리개2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인검3</t>
+  </si>
+  <si>
+    <t>용인노리개3</t>
   </si>
 </sst>
 </file>
@@ -1347,11 +1353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q218"/>
+  <dimension ref="A1:Q220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
+      <selection pane="bottomLeft" activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12798,10 +12804,10 @@
         <v>4</v>
       </c>
       <c r="J216" s="3">
-        <v>5800000</v>
+        <v>5900000</v>
       </c>
       <c r="K216" s="3">
-        <v>340000</v>
+        <v>350000</v>
       </c>
       <c r="L216" s="3">
         <v>-1</v>
@@ -12906,10 +12912,10 @@
         <v>4</v>
       </c>
       <c r="J218" s="3">
-        <v>5900000</v>
+        <v>6000000</v>
       </c>
       <c r="K218" s="3">
-        <v>345000</v>
+        <v>355000</v>
       </c>
       <c r="L218" s="3">
         <v>-1</v>
@@ -12927,6 +12933,114 @@
         <v>0</v>
       </c>
       <c r="Q218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <f>ROW()-2</f>
+        <v>217</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C219" s="3">
+        <v>3</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E219" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F219" s="3">
+        <v>80</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="I219" s="3">
+        <v>27</v>
+      </c>
+      <c r="J219" s="3">
+        <v>0</v>
+      </c>
+      <c r="K219" s="3">
+        <v>30</v>
+      </c>
+      <c r="L219" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M219" s="3">
+        <v>0</v>
+      </c>
+      <c r="N219" s="3">
+        <v>0</v>
+      </c>
+      <c r="O219" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P219" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <f>ROW()-2</f>
+        <v>218</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C220" s="3">
+        <v>4</v>
+      </c>
+      <c r="D220" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E220" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="F220" s="3">
+        <v>80</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0</v>
+      </c>
+      <c r="H220" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I220" s="3">
+        <v>4</v>
+      </c>
+      <c r="J220" s="3">
+        <v>6100000</v>
+      </c>
+      <c r="K220" s="3">
+        <v>360000</v>
+      </c>
+      <c r="L220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M220" s="3">
+        <v>0</v>
+      </c>
+      <c r="N220" s="3">
+        <v>0</v>
+      </c>
+      <c r="O220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P220" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q220" s="3">
         <v>0</v>
       </c>
     </row>
@@ -12943,7 +13057,7 @@
   <dimension ref="C5:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:O17"/>
+      <selection activeCell="O18" sqref="O18:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13453,9 +13567,9 @@
       <c r="M18">
         <v>13</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="str">
         <f>WeaponEffect!B219</f>
-        <v>0</v>
+        <v>용인검3</v>
       </c>
       <c r="O18">
         <f t="shared" si="4"/>
@@ -13491,9 +13605,9 @@
       <c r="M19">
         <v>14</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="str">
         <f>WeaponEffect!B220</f>
-        <v>0</v>
+        <v>용인노리개3</v>
       </c>
       <c r="O19">
         <f t="shared" si="4"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6DEC0F-E02C-4C5E-B590-9A5104026EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54272270-3FAA-40F4-A3E3-2FFA43F4EE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -911,6 +911,20 @@
   </si>
   <si>
     <t>용인노리개3</t>
+  </si>
+  <si>
+    <t>용인검1</t>
+  </si>
+  <si>
+    <t>용인검2</t>
+  </si>
+  <si>
+    <t>pvp노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1353,11 +1367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q220"/>
+  <dimension ref="A1:Q226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C218" sqref="C218"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12936,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <f>ROW()-2</f>
         <v>217</v>
@@ -13041,6 +13055,330 @@
         <v>0</v>
       </c>
       <c r="Q220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <f t="shared" ref="A221:A225" si="0">ROW()-2</f>
+        <v>219</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0</v>
+      </c>
+      <c r="F221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0</v>
+      </c>
+      <c r="H221" s="3">
+        <v>0</v>
+      </c>
+      <c r="I221" s="3">
+        <v>88</v>
+      </c>
+      <c r="J221" s="3">
+        <v>50</v>
+      </c>
+      <c r="K221" s="3">
+        <v>0</v>
+      </c>
+      <c r="L221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M221" s="3">
+        <v>0</v>
+      </c>
+      <c r="N221" s="3">
+        <v>0</v>
+      </c>
+      <c r="O221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P221" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D222" s="3">
+        <v>0</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0</v>
+      </c>
+      <c r="F222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+      <c r="H222" s="3">
+        <v>0</v>
+      </c>
+      <c r="I222" s="3">
+        <v>88</v>
+      </c>
+      <c r="J222" s="3">
+        <v>100</v>
+      </c>
+      <c r="K222" s="3">
+        <v>0</v>
+      </c>
+      <c r="L222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M222" s="3">
+        <v>0</v>
+      </c>
+      <c r="N222" s="3">
+        <v>0</v>
+      </c>
+      <c r="O222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P222" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A223" s="3">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D223" s="3">
+        <v>0</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0</v>
+      </c>
+      <c r="F223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
+      <c r="H223" s="3">
+        <v>0</v>
+      </c>
+      <c r="I223" s="3">
+        <v>88</v>
+      </c>
+      <c r="J223" s="3">
+        <v>150</v>
+      </c>
+      <c r="K223" s="3">
+        <v>0</v>
+      </c>
+      <c r="L223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M223" s="3">
+        <v>0</v>
+      </c>
+      <c r="N223" s="3">
+        <v>0</v>
+      </c>
+      <c r="O223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P223" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0</v>
+      </c>
+      <c r="F224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G224" s="3">
+        <v>0</v>
+      </c>
+      <c r="H224" s="3">
+        <v>0</v>
+      </c>
+      <c r="I224" s="3">
+        <v>88</v>
+      </c>
+      <c r="J224" s="3">
+        <v>200</v>
+      </c>
+      <c r="K224" s="3">
+        <v>0</v>
+      </c>
+      <c r="L224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M224" s="3">
+        <v>0</v>
+      </c>
+      <c r="N224" s="3">
+        <v>0</v>
+      </c>
+      <c r="O224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P224" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A225" s="3">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>0</v>
+      </c>
+      <c r="H225" s="3">
+        <v>0</v>
+      </c>
+      <c r="I225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J225" s="3">
+        <v>0</v>
+      </c>
+      <c r="K225" s="3">
+        <v>0</v>
+      </c>
+      <c r="L225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M225" s="3">
+        <v>0</v>
+      </c>
+      <c r="N225" s="3">
+        <v>0</v>
+      </c>
+      <c r="O225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P225" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <f>ROW()-2</f>
+        <v>224</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0</v>
+      </c>
+      <c r="H226" s="3">
+        <v>0</v>
+      </c>
+      <c r="I226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J226" s="3">
+        <v>0</v>
+      </c>
+      <c r="K226" s="3">
+        <v>0</v>
+      </c>
+      <c r="L226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M226" s="3">
+        <v>0</v>
+      </c>
+      <c r="N226" s="3">
+        <v>0</v>
+      </c>
+      <c r="O226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P226" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="3">
         <v>0</v>
       </c>
     </row>
@@ -13056,8 +13394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
   <dimension ref="C5:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13644,7 +13982,7 @@
         <v>15</v>
       </c>
       <c r="N20">
-        <f>WeaponEffect!B221</f>
+        <f>WeaponEffect!B227</f>
         <v>0</v>
       </c>
       <c r="O20">
@@ -13682,7 +14020,7 @@
         <v>16</v>
       </c>
       <c r="N21">
-        <f>WeaponEffect!B222</f>
+        <f>WeaponEffect!B228</f>
         <v>0</v>
       </c>
       <c r="O21">
@@ -13720,7 +14058,7 @@
         <v>17</v>
       </c>
       <c r="N22">
-        <f>WeaponEffect!B223</f>
+        <f>WeaponEffect!B229</f>
         <v>0</v>
       </c>
       <c r="O22">
@@ -13758,7 +14096,7 @@
         <v>18</v>
       </c>
       <c r="N23">
-        <f>WeaponEffect!B224</f>
+        <f>WeaponEffect!B230</f>
         <v>0</v>
       </c>
       <c r="O23">
@@ -13796,7 +14134,7 @@
         <v>19</v>
       </c>
       <c r="N24">
-        <f>WeaponEffect!B225</f>
+        <f>WeaponEffect!B231</f>
         <v>0</v>
       </c>
       <c r="O24">
@@ -13834,7 +14172,7 @@
         <v>20</v>
       </c>
       <c r="N25">
-        <f>WeaponEffect!B226</f>
+        <f>WeaponEffect!B232</f>
         <v>0</v>
       </c>
       <c r="O25">
@@ -13872,7 +14210,7 @@
         <v>21</v>
       </c>
       <c r="N26">
-        <f>WeaponEffect!B227</f>
+        <f>WeaponEffect!B233</f>
         <v>0</v>
       </c>
       <c r="O26">
@@ -13910,7 +14248,7 @@
         <v>22</v>
       </c>
       <c r="N27">
-        <f>WeaponEffect!B228</f>
+        <f>WeaponEffect!B234</f>
         <v>0</v>
       </c>
       <c r="O27">
@@ -13948,7 +14286,7 @@
         <v>23</v>
       </c>
       <c r="N28">
-        <f>WeaponEffect!B229</f>
+        <f>WeaponEffect!B235</f>
         <v>0</v>
       </c>
       <c r="O28">
@@ -13986,7 +14324,7 @@
         <v>24</v>
       </c>
       <c r="N29">
-        <f>WeaponEffect!B230</f>
+        <f>WeaponEffect!B236</f>
         <v>0</v>
       </c>
       <c r="O29">

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54272270-3FAA-40F4-A3E3-2FFA43F4EE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CE63B-1CBC-4815-BB65-35E918D371C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="243">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -924,6 +924,37 @@
   </si>
   <si>
     <t>pvp검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검1</t>
+  </si>
+  <si>
+    <t>크리스마스검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1080,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,11 +1401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q226"/>
+  <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H220" sqref="H220"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E235" sqref="E235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13060,7 +13094,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A225" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A232" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -13379,6 +13413,330 @@
         <v>0</v>
       </c>
       <c r="Q226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A227" s="3">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C227" s="3">
+        <v>3</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F227" s="3">
+        <v>80</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0</v>
+      </c>
+      <c r="H227" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="I227" s="3">
+        <v>27</v>
+      </c>
+      <c r="J227" s="3">
+        <v>0</v>
+      </c>
+      <c r="K227" s="3">
+        <v>30</v>
+      </c>
+      <c r="L227" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M227" s="3">
+        <v>0</v>
+      </c>
+      <c r="N227" s="3">
+        <v>0</v>
+      </c>
+      <c r="O227" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P227" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C228" s="3">
+        <v>3</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E228" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F228" s="3">
+        <v>80</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0</v>
+      </c>
+      <c r="H228" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="I228" s="3">
+        <v>27</v>
+      </c>
+      <c r="J228" s="3">
+        <v>0</v>
+      </c>
+      <c r="K228" s="3">
+        <v>30</v>
+      </c>
+      <c r="L228" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M228" s="3">
+        <v>0</v>
+      </c>
+      <c r="N228" s="3">
+        <v>0</v>
+      </c>
+      <c r="O228" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P228" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D229" s="3">
+        <v>0</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G229" s="3">
+        <v>0</v>
+      </c>
+      <c r="H229" s="3">
+        <v>0</v>
+      </c>
+      <c r="I229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J229" s="3">
+        <v>0</v>
+      </c>
+      <c r="K229" s="3">
+        <v>0</v>
+      </c>
+      <c r="L229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M229" s="3">
+        <v>0</v>
+      </c>
+      <c r="N229" s="3">
+        <v>0</v>
+      </c>
+      <c r="O229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P229" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q229" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C230" s="3">
+        <v>4</v>
+      </c>
+      <c r="D230" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E230" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="F230" s="3">
+        <v>80</v>
+      </c>
+      <c r="G230" s="3">
+        <v>0</v>
+      </c>
+      <c r="H230" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I230" s="3">
+        <v>4</v>
+      </c>
+      <c r="J230" s="3">
+        <v>6200000</v>
+      </c>
+      <c r="K230" s="3">
+        <v>365000</v>
+      </c>
+      <c r="L230" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M230" s="3">
+        <v>0</v>
+      </c>
+      <c r="N230" s="3">
+        <v>0</v>
+      </c>
+      <c r="O230" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P230" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q230" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A231" s="3">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C231" s="3">
+        <v>4</v>
+      </c>
+      <c r="D231" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E231" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="F231" s="3">
+        <v>80</v>
+      </c>
+      <c r="G231" s="3">
+        <v>0</v>
+      </c>
+      <c r="H231" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="I231" s="3">
+        <v>4</v>
+      </c>
+      <c r="J231" s="3">
+        <v>6300000</v>
+      </c>
+      <c r="K231" s="3">
+        <v>370000</v>
+      </c>
+      <c r="L231" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M231" s="3">
+        <v>0</v>
+      </c>
+      <c r="N231" s="3">
+        <v>0</v>
+      </c>
+      <c r="O231" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P231" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A232" s="3">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G232" s="3">
+        <v>0</v>
+      </c>
+      <c r="H232" s="3">
+        <v>0</v>
+      </c>
+      <c r="I232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J232" s="3">
+        <v>0</v>
+      </c>
+      <c r="K232" s="3">
+        <v>0</v>
+      </c>
+      <c r="L232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M232" s="3">
+        <v>0</v>
+      </c>
+      <c r="N232" s="3">
+        <v>0</v>
+      </c>
+      <c r="O232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P232" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q232" s="3">
         <v>0</v>
       </c>
     </row>
@@ -13392,15 +13750,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
-  <dimension ref="C5:O29"/>
+  <dimension ref="C5:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13414,6 +13774,9 @@
       <c r="G5" t="s">
         <v>219</v>
       </c>
+      <c r="H5" t="s">
+        <v>242</v>
+      </c>
       <c r="J5" t="s">
         <v>217</v>
       </c>
@@ -13431,10 +13794,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <v>25</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <f>F6</f>
         <v>25</v>
       </c>
@@ -13465,10 +13829,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <f>IF(D7=1,E7+F6,F7+E6)</f>
         <v>75</v>
       </c>
@@ -13503,10 +13868,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>50</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f t="shared" ref="G8:G29" si="2">IF(D8=1,E8+F7,F8+E7)</f>
         <v>100</v>
       </c>
@@ -13530,7 +13896,7 @@
         <v>현상수배검10</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O29" si="4">IF((MOD(C8,2))=1,J9,K7)</f>
+        <f t="shared" ref="O8:P38" si="4">IF((MOD(C8,2))=1,J9,K7)</f>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -13541,10 +13907,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>80</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
@@ -13579,10 +13946,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
@@ -13617,10 +13985,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>150</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
@@ -13655,10 +14024,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>150</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
@@ -13693,10 +14063,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>250</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
@@ -13731,10 +14102,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>300</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
@@ -13769,10 +14141,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>400</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
@@ -13807,10 +14180,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>500</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
@@ -13838,17 +14212,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>12</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>700</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -13876,17 +14251,18 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>13</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <v>900</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
@@ -13914,17 +14290,18 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>14</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>1200</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
@@ -13952,17 +14329,18 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>15</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
         <v>1500</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <f t="shared" si="2"/>
         <v>2700</v>
       </c>
@@ -13981,36 +14359,42 @@
       <c r="M20">
         <v>15</v>
       </c>
-      <c r="N20">
-        <f>WeaponEffect!B227</f>
-        <v>0</v>
+      <c r="N20" t="s">
+        <v>235</v>
       </c>
       <c r="O20">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+        <v>0.23</v>
+      </c>
+      <c r="Q20">
+        <v>0.23</v>
+      </c>
+      <c r="R20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>16</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>2000</v>
-      </c>
-      <c r="G21">
+      <c r="E21" s="5">
+        <v>2300</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>29.62962962962963</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
@@ -14019,32 +14403,39 @@
       <c r="M21">
         <v>16</v>
       </c>
-      <c r="N21">
-        <f>WeaponEffect!B228</f>
-        <v>0</v>
+      <c r="N21" t="s">
+        <v>239</v>
       </c>
       <c r="O21">
         <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>0.42</v>
+      </c>
+      <c r="R21">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>17</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>2500</v>
-      </c>
-      <c r="G22">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
+        <f>E21</f>
+        <v>2300</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>28.571428571428573</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -14052,41 +14443,44 @@
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="M22">
         <v>17</v>
       </c>
-      <c r="N22">
-        <f>WeaponEffect!B229</f>
-        <v>0</v>
+      <c r="N22" t="s">
+        <v>241</v>
       </c>
       <c r="O22">
         <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>18</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>3000</v>
-      </c>
-      <c r="G23">
+      <c r="E23" s="5">
+        <v>4200</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:F38" si="5">E22</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>22.222222222222221</v>
+        <v>41.304347826086953</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
@@ -14095,32 +14489,33 @@
       <c r="M23">
         <v>18</v>
       </c>
-      <c r="N23">
-        <f>WeaponEffect!B230</f>
-        <v>0</v>
+      <c r="N23" t="s">
+        <v>240</v>
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>19</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>4000</v>
-      </c>
-      <c r="G24">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <f t="shared" si="5"/>
+        <v>4200</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>8400</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>27.272727272727273</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -14128,41 +14523,41 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="M24">
         <v>19</v>
       </c>
-      <c r="N24">
-        <f>WeaponEffect!B231</f>
-        <v>0</v>
-      </c>
       <c r="O24">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>20</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>5000</v>
-      </c>
-      <c r="G25">
+      <c r="E25" s="5">
+        <v>7500</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>11700</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>28.571428571428573</v>
+        <v>39.285714285714285</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
@@ -14171,32 +14566,30 @@
       <c r="M25">
         <v>20</v>
       </c>
-      <c r="N25">
-        <f>WeaponEffect!B232</f>
-        <v>0</v>
-      </c>
       <c r="O25">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>21</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="F26">
-        <v>7000</v>
-      </c>
-      <c r="G26">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <f t="shared" si="5"/>
+        <v>7500</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
+        <v>28.205128205128204</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
@@ -14204,41 +14597,41 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="M26">
         <v>21</v>
       </c>
-      <c r="N26">
-        <f>WeaponEffect!B233</f>
-        <v>0</v>
-      </c>
       <c r="O26">
         <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>22</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>9000</v>
-      </c>
-      <c r="G27">
+      <c r="E27" s="5">
+        <v>13000</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>20500</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
@@ -14247,32 +14640,30 @@
       <c r="M27">
         <v>22</v>
       </c>
-      <c r="N27">
-        <f>WeaponEffect!B234</f>
-        <v>0</v>
-      </c>
       <c r="O27">
         <f t="shared" si="4"/>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>23</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="F28">
-        <v>12000</v>
-      </c>
-      <c r="G28">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>26.829268292682926</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
@@ -14280,41 +14671,38 @@
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="M28">
         <v>23</v>
       </c>
-      <c r="N28">
-        <f>WeaponEffect!B235</f>
-        <v>0</v>
-      </c>
       <c r="O28">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>24</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>15000</v>
-      </c>
-      <c r="G29">
+      <c r="E29" s="5">
+        <v>24000</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
         <f t="shared" si="2"/>
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>28.571428571428573</v>
+        <v>42.307692307692307</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
@@ -14323,13 +14711,347 @@
       <c r="M29">
         <v>24</v>
       </c>
-      <c r="N29">
-        <f>WeaponEffect!B236</f>
-        <v>0</v>
-      </c>
       <c r="O29">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <f t="shared" si="5"/>
+        <v>24000</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" ref="G30:G38" si="6">IF(D30=1,E30+F29,F30+E29)</f>
+        <v>48000</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H38" si="7">100*(G30-G29)/G29</f>
+        <v>29.72972972972973</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J38" si="8">E30/10000</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K38" si="9">F30/20000</f>
+        <v>1.2</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D38" si="10">D29</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>45000</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
+        <f t="shared" si="6"/>
+        <v>69000</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>43.75</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <f t="shared" si="5"/>
+        <v>45000</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="6"/>
+        <v>90000</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>30.434782608695652</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="9"/>
+        <v>2.25</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>82000</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="6"/>
+        <v>127000</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>41.111111111111114</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <f t="shared" si="5"/>
+        <v>82000</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="6"/>
+        <v>164000</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>29.133858267716537</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="9"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M34">
+        <v>29</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>150000</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="6"/>
+        <v>232000</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>41.463414634146339</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
+        <f t="shared" si="5"/>
+        <v>150000</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="6"/>
+        <v>300000</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>29.310344827586206</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="M36">
+        <v>31</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>270000</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="6"/>
+        <v>420000</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>32</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>33</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
+        <f t="shared" si="5"/>
+        <v>270000</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="6"/>
+        <v>540000</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="9"/>
+        <v>13.5</v>
+      </c>
+      <c r="M38">
+        <v>33</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CE63B-1CBC-4815-BB65-35E918D371C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B142AD-8948-4A1E-B5C0-94B1E2EE989D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="251">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -956,6 +956,34 @@
   <si>
     <t>상승률</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁노리개2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁노리개3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검2</t>
+  </si>
+  <si>
+    <t>용궁노리개2</t>
+  </si>
+  <si>
+    <t>용궁검3</t>
+  </si>
+  <si>
+    <t>용궁노리개3</t>
   </si>
 </sst>
 </file>
@@ -1401,11 +1429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q232"/>
+  <dimension ref="A1:Q236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E235" sqref="E235"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G239" sqref="G239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13094,7 +13122,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A232" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A236" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -13737,6 +13765,222 @@
         <v>0</v>
       </c>
       <c r="Q232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A233" s="3">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C233" s="3">
+        <v>3</v>
+      </c>
+      <c r="D233" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E233" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F233" s="3">
+        <v>80</v>
+      </c>
+      <c r="G233" s="3">
+        <v>0</v>
+      </c>
+      <c r="H233" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I233" s="3">
+        <v>27</v>
+      </c>
+      <c r="J233" s="3">
+        <v>0</v>
+      </c>
+      <c r="K233" s="3">
+        <v>30</v>
+      </c>
+      <c r="L233" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M233" s="3">
+        <v>0</v>
+      </c>
+      <c r="N233" s="3">
+        <v>0</v>
+      </c>
+      <c r="O233" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P233" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A234" s="3">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C234" s="3">
+        <v>3</v>
+      </c>
+      <c r="D234" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E234" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F234" s="3">
+        <v>80</v>
+      </c>
+      <c r="G234" s="3">
+        <v>0</v>
+      </c>
+      <c r="H234" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="I234" s="3">
+        <v>27</v>
+      </c>
+      <c r="J234" s="3">
+        <v>0</v>
+      </c>
+      <c r="K234" s="3">
+        <v>30</v>
+      </c>
+      <c r="L234" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M234" s="3">
+        <v>0</v>
+      </c>
+      <c r="N234" s="3">
+        <v>0</v>
+      </c>
+      <c r="O234" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P234" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A235" s="3">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C235" s="3">
+        <v>4</v>
+      </c>
+      <c r="D235" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E235" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="F235" s="3">
+        <v>80</v>
+      </c>
+      <c r="G235" s="3">
+        <v>0</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="I235" s="3">
+        <v>4</v>
+      </c>
+      <c r="J235" s="3">
+        <v>6400000</v>
+      </c>
+      <c r="K235" s="3">
+        <v>375000</v>
+      </c>
+      <c r="L235" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M235" s="3">
+        <v>0</v>
+      </c>
+      <c r="N235" s="3">
+        <v>0</v>
+      </c>
+      <c r="O235" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P235" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A236" s="3">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C236" s="3">
+        <v>4</v>
+      </c>
+      <c r="D236" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E236" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="F236" s="3">
+        <v>80</v>
+      </c>
+      <c r="G236" s="3">
+        <v>0</v>
+      </c>
+      <c r="H236" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="I236" s="3">
+        <v>4</v>
+      </c>
+      <c r="J236" s="3">
+        <v>6500000</v>
+      </c>
+      <c r="K236" s="3">
+        <v>380000</v>
+      </c>
+      <c r="L236" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M236" s="3">
+        <v>0</v>
+      </c>
+      <c r="N236" s="3">
+        <v>0</v>
+      </c>
+      <c r="O236" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P236" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q236" s="3">
         <v>0</v>
       </c>
     </row>
@@ -13753,7 +13997,7 @@
   <dimension ref="C5:R38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20:R21"/>
+      <selection activeCell="R24" sqref="R24:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13896,7 +14140,7 @@
         <v>현상수배검10</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:P38" si="4">IF((MOD(C8,2))=1,J9,K7)</f>
+        <f t="shared" ref="O8:Q38" si="4">IF((MOD(C8,2))=1,J9,K7)</f>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -14528,10 +14772,19 @@
       <c r="M24">
         <v>19</v>
       </c>
+      <c r="N24" t="s">
+        <v>247</v>
+      </c>
       <c r="O24">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
+      <c r="Q24">
+        <v>0.75</v>
+      </c>
+      <c r="R24">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C25">
@@ -14566,9 +14819,18 @@
       <c r="M25">
         <v>20</v>
       </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
       <c r="O25">
         <f t="shared" si="4"/>
         <v>0.21</v>
+      </c>
+      <c r="Q25">
+        <v>1.3</v>
+      </c>
+      <c r="R25">
+        <v>0.375</v>
       </c>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.3">
@@ -14602,6 +14864,9 @@
       <c r="M26">
         <v>21</v>
       </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
       <c r="O26">
         <f t="shared" si="4"/>
         <v>1.3</v>
@@ -14639,6 +14904,9 @@
       </c>
       <c r="M27">
         <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>250</v>
       </c>
       <c r="O27">
         <f t="shared" si="4"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B142AD-8948-4A1E-B5C0-94B1E2EE989D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D0581A-2D5D-40D3-8772-5F7AD625E86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="259">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -984,6 +984,34 @@
   </si>
   <si>
     <t>용궁노리개3</t>
+  </si>
+  <si>
+    <t>용궁검4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁노리개4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁노리개5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검4</t>
+  </si>
+  <si>
+    <t>용궁노리개4</t>
+  </si>
+  <si>
+    <t>용궁검5</t>
+  </si>
+  <si>
+    <t>용궁노리개5</t>
   </si>
 </sst>
 </file>
@@ -1429,11 +1457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q236"/>
+  <dimension ref="A1:Q240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G239" sqref="G239"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13122,7 +13150,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A236" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A240" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -13981,6 +14009,222 @@
         <v>0</v>
       </c>
       <c r="Q236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A237" s="3">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C237" s="3">
+        <v>3</v>
+      </c>
+      <c r="D237" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E237" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F237" s="3">
+        <v>80</v>
+      </c>
+      <c r="G237" s="3">
+        <v>0</v>
+      </c>
+      <c r="H237" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="I237" s="3">
+        <v>27</v>
+      </c>
+      <c r="J237" s="3">
+        <v>0</v>
+      </c>
+      <c r="K237" s="3">
+        <v>30</v>
+      </c>
+      <c r="L237" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M237" s="3">
+        <v>0</v>
+      </c>
+      <c r="N237" s="3">
+        <v>0</v>
+      </c>
+      <c r="O237" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P237" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A238" s="3">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C238" s="3">
+        <v>3</v>
+      </c>
+      <c r="D238" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E238" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F238" s="3">
+        <v>80</v>
+      </c>
+      <c r="G238" s="3">
+        <v>0</v>
+      </c>
+      <c r="H238" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I238" s="3">
+        <v>27</v>
+      </c>
+      <c r="J238" s="3">
+        <v>0</v>
+      </c>
+      <c r="K238" s="3">
+        <v>30</v>
+      </c>
+      <c r="L238" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M238" s="3">
+        <v>0</v>
+      </c>
+      <c r="N238" s="3">
+        <v>0</v>
+      </c>
+      <c r="O238" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P238" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A239" s="3">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C239" s="3">
+        <v>4</v>
+      </c>
+      <c r="D239" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E239" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="F239" s="3">
+        <v>80</v>
+      </c>
+      <c r="G239" s="3">
+        <v>0</v>
+      </c>
+      <c r="H239" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I239" s="3">
+        <v>4</v>
+      </c>
+      <c r="J239" s="3">
+        <v>6600000</v>
+      </c>
+      <c r="K239" s="3">
+        <v>385000</v>
+      </c>
+      <c r="L239" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M239" s="3">
+        <v>0</v>
+      </c>
+      <c r="N239" s="3">
+        <v>0</v>
+      </c>
+      <c r="O239" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P239" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A240" s="3">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C240" s="3">
+        <v>4</v>
+      </c>
+      <c r="D240" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E240" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="F240" s="3">
+        <v>80</v>
+      </c>
+      <c r="G240" s="3">
+        <v>0</v>
+      </c>
+      <c r="H240" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I240" s="3">
+        <v>4</v>
+      </c>
+      <c r="J240" s="3">
+        <v>6700000</v>
+      </c>
+      <c r="K240" s="3">
+        <v>390000</v>
+      </c>
+      <c r="L240" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M240" s="3">
+        <v>0</v>
+      </c>
+      <c r="N240" s="3">
+        <v>0</v>
+      </c>
+      <c r="O240" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P240" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q240" s="3">
         <v>0</v>
       </c>
     </row>
@@ -13997,7 +14241,7 @@
   <dimension ref="C5:R38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24:R25"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14944,9 +15188,18 @@
       <c r="M28">
         <v>23</v>
       </c>
+      <c r="N28" t="s">
+        <v>255</v>
+      </c>
       <c r="O28">
         <f t="shared" si="4"/>
         <v>2.4</v>
+      </c>
+      <c r="Q28">
+        <v>2.4</v>
+      </c>
+      <c r="R28">
+        <v>0.65</v>
       </c>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.3">
@@ -14979,9 +15232,18 @@
       <c r="M29">
         <v>24</v>
       </c>
+      <c r="N29" t="s">
+        <v>256</v>
+      </c>
       <c r="O29">
         <f t="shared" si="4"/>
         <v>0.65</v>
+      </c>
+      <c r="Q29">
+        <v>4.5</v>
+      </c>
+      <c r="R29">
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.3">
@@ -15016,6 +15278,9 @@
       <c r="M30">
         <v>25</v>
       </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
       <c r="O30">
         <f t="shared" si="4"/>
         <v>4.5</v>
@@ -15051,6 +15316,9 @@
       </c>
       <c r="M31">
         <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>258</v>
       </c>
       <c r="O31">
         <f t="shared" si="4"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D0581A-2D5D-40D3-8772-5F7AD625E86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99912E6-5CBE-4F04-BD9B-B85C29DF6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="263">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,6 +1012,22 @@
   </si>
   <si>
     <t>용궁노리개5</t>
+  </si>
+  <si>
+    <t>용궁검6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁노리개6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁노리개6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1457,11 +1473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q240"/>
+  <dimension ref="A1:Q242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D233" sqref="D233"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H242" sqref="H242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13150,7 +13166,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A240" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A242" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -14225,6 +14241,114 @@
         <v>0</v>
       </c>
       <c r="Q240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A241" s="3">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C241" s="3">
+        <v>3</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E241" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F241" s="3">
+        <v>80</v>
+      </c>
+      <c r="G241" s="3">
+        <v>0</v>
+      </c>
+      <c r="H241" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I241" s="3">
+        <v>27</v>
+      </c>
+      <c r="J241" s="3">
+        <v>0</v>
+      </c>
+      <c r="K241" s="3">
+        <v>30</v>
+      </c>
+      <c r="L241" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M241" s="3">
+        <v>0</v>
+      </c>
+      <c r="N241" s="3">
+        <v>0</v>
+      </c>
+      <c r="O241" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P241" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C242" s="3">
+        <v>4</v>
+      </c>
+      <c r="D242" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E242" s="3">
+        <v>5300000</v>
+      </c>
+      <c r="F242" s="3">
+        <v>80</v>
+      </c>
+      <c r="G242" s="3">
+        <v>0</v>
+      </c>
+      <c r="H242" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="I242" s="3">
+        <v>4</v>
+      </c>
+      <c r="J242" s="3">
+        <v>6800000</v>
+      </c>
+      <c r="K242" s="3">
+        <v>395000</v>
+      </c>
+      <c r="L242" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M242" s="3">
+        <v>0</v>
+      </c>
+      <c r="N242" s="3">
+        <v>0</v>
+      </c>
+      <c r="O242" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P242" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="3">
         <v>0</v>
       </c>
     </row>
@@ -14240,8 +14364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
   <dimension ref="C5:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14384,7 +14508,7 @@
         <v>현상수배검10</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:Q38" si="4">IF((MOD(C8,2))=1,J9,K7)</f>
+        <f t="shared" ref="O8:O38" si="4">IF((MOD(C8,2))=1,J9,K7)</f>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -15357,6 +15481,9 @@
       <c r="M32">
         <v>27</v>
       </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
       <c r="O32">
         <f t="shared" si="4"/>
         <v>8.1999999999999993</v>
@@ -15395,6 +15522,9 @@
       </c>
       <c r="M33">
         <v>28</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99912E6-5CBE-4F04-BD9B-B85C29DF6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F6AFD8-6399-43B6-A182-226401A82CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="271">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1027,6 +1027,38 @@
   </si>
   <si>
     <t>용궁노리개6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락노리개1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1473,11 +1505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q242"/>
+  <dimension ref="A1:Q246"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H242" sqref="H242"/>
+      <selection pane="bottomLeft" activeCell="H246" sqref="H246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13166,7 +13198,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A242" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A246" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -14349,6 +14381,222 @@
         <v>0</v>
       </c>
       <c r="Q242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A243" s="3">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C243" s="3">
+        <v>3</v>
+      </c>
+      <c r="D243" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E243" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F243" s="3">
+        <v>80</v>
+      </c>
+      <c r="G243" s="3">
+        <v>0</v>
+      </c>
+      <c r="H243" s="3">
+        <v>15</v>
+      </c>
+      <c r="I243" s="3">
+        <v>27</v>
+      </c>
+      <c r="J243" s="3">
+        <v>0</v>
+      </c>
+      <c r="K243" s="3">
+        <v>30</v>
+      </c>
+      <c r="L243" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M243" s="3">
+        <v>0</v>
+      </c>
+      <c r="N243" s="3">
+        <v>0</v>
+      </c>
+      <c r="O243" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P243" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A244" s="3">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C244" s="3">
+        <v>3</v>
+      </c>
+      <c r="D244" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E244" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F244" s="3">
+        <v>80</v>
+      </c>
+      <c r="G244" s="3">
+        <v>0</v>
+      </c>
+      <c r="H244" s="3">
+        <v>27</v>
+      </c>
+      <c r="I244" s="3">
+        <v>27</v>
+      </c>
+      <c r="J244" s="3">
+        <v>0</v>
+      </c>
+      <c r="K244" s="3">
+        <v>30</v>
+      </c>
+      <c r="L244" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M244" s="3">
+        <v>0</v>
+      </c>
+      <c r="N244" s="3">
+        <v>0</v>
+      </c>
+      <c r="O244" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P244" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A245" s="3">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C245" s="3">
+        <v>4</v>
+      </c>
+      <c r="D245" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E245" s="3">
+        <v>5400000</v>
+      </c>
+      <c r="F245" s="3">
+        <v>80</v>
+      </c>
+      <c r="G245" s="3">
+        <v>0</v>
+      </c>
+      <c r="H245" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I245" s="3">
+        <v>4</v>
+      </c>
+      <c r="J245" s="3">
+        <v>6900000</v>
+      </c>
+      <c r="K245" s="3">
+        <v>400000</v>
+      </c>
+      <c r="L245" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M245" s="3">
+        <v>0</v>
+      </c>
+      <c r="N245" s="3">
+        <v>0</v>
+      </c>
+      <c r="O245" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P245" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A246" s="3">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C246" s="3">
+        <v>4</v>
+      </c>
+      <c r="D246" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E246" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="F246" s="3">
+        <v>80</v>
+      </c>
+      <c r="G246" s="3">
+        <v>0</v>
+      </c>
+      <c r="H246" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="I246" s="3">
+        <v>4</v>
+      </c>
+      <c r="J246" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="K246" s="3">
+        <v>405000</v>
+      </c>
+      <c r="L246" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M246" s="3">
+        <v>0</v>
+      </c>
+      <c r="N246" s="3">
+        <v>0</v>
+      </c>
+      <c r="O246" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P246" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q246" s="3">
         <v>0</v>
       </c>
     </row>
@@ -14364,8 +14612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
   <dimension ref="C5:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32:R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15488,8 +15736,14 @@
         <f t="shared" si="4"/>
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <v>15</v>
+      </c>
+      <c r="R32">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>28</v>
       </c>
@@ -15530,8 +15784,14 @@
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <v>27</v>
+      </c>
+      <c r="R33">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>29</v>
       </c>
@@ -15563,12 +15823,15 @@
       <c r="M34">
         <v>29</v>
       </c>
+      <c r="N34" t="s">
+        <v>263</v>
+      </c>
       <c r="O34">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>30</v>
       </c>
@@ -15602,12 +15865,15 @@
       <c r="M35">
         <v>30</v>
       </c>
+      <c r="N35" t="s">
+        <v>264</v>
+      </c>
       <c r="O35">
         <f t="shared" si="4"/>
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>31</v>
       </c>
@@ -15639,12 +15905,15 @@
       <c r="M36">
         <v>31</v>
       </c>
+      <c r="N36" t="s">
+        <v>265</v>
+      </c>
       <c r="O36">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>32</v>
       </c>
@@ -15678,12 +15947,15 @@
       <c r="M37">
         <v>32</v>
       </c>
+      <c r="N37" t="s">
+        <v>266</v>
+      </c>
       <c r="O37">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>33</v>
       </c>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F6AFD8-6399-43B6-A182-226401A82CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A544991-D08C-4C04-B666-5FF9F0410D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="277">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1059,6 +1059,29 @@
   </si>
   <si>
     <t>극락노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검1</t>
+  </si>
+  <si>
+    <t>극락노리개2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림노리개2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,9 +1232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1249,7 +1272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1355,7 +1378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1497,7 +1520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1505,11 +1528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q246"/>
+  <dimension ref="A1:Q250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H246" sqref="H246"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13198,7 +13221,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A246" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A250" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -14597,6 +14620,222 @@
         <v>0</v>
       </c>
       <c r="Q246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A247" s="3">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C247" s="3">
+        <v>3</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E247" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F247" s="3">
+        <v>80</v>
+      </c>
+      <c r="G247" s="3">
+        <v>0</v>
+      </c>
+      <c r="H247" s="3">
+        <v>40</v>
+      </c>
+      <c r="I247" s="3">
+        <v>27</v>
+      </c>
+      <c r="J247" s="3">
+        <v>0</v>
+      </c>
+      <c r="K247" s="3">
+        <v>30</v>
+      </c>
+      <c r="L247" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M247" s="3">
+        <v>0</v>
+      </c>
+      <c r="N247" s="3">
+        <v>0</v>
+      </c>
+      <c r="O247" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P247" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A248" s="3">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D248" s="3">
+        <v>0</v>
+      </c>
+      <c r="E248" s="3">
+        <v>0</v>
+      </c>
+      <c r="F248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G248" s="3">
+        <v>0</v>
+      </c>
+      <c r="H248" s="3">
+        <v>0</v>
+      </c>
+      <c r="I248" s="3">
+        <v>113</v>
+      </c>
+      <c r="J248" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K248" s="3">
+        <v>0</v>
+      </c>
+      <c r="L248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M248" s="3">
+        <v>0</v>
+      </c>
+      <c r="N248" s="3">
+        <v>0</v>
+      </c>
+      <c r="O248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P248" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q248" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A249" s="3">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0</v>
+      </c>
+      <c r="E249" s="3">
+        <v>0</v>
+      </c>
+      <c r="F249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G249" s="3">
+        <v>0</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0</v>
+      </c>
+      <c r="I249" s="3">
+        <v>113</v>
+      </c>
+      <c r="J249" s="3">
+        <v>1</v>
+      </c>
+      <c r="K249" s="3">
+        <v>0</v>
+      </c>
+      <c r="L249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M249" s="3">
+        <v>0</v>
+      </c>
+      <c r="N249" s="3">
+        <v>0</v>
+      </c>
+      <c r="O249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P249" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A250" s="3">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C250" s="3">
+        <v>4</v>
+      </c>
+      <c r="D250" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E250" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="F250" s="3">
+        <v>80</v>
+      </c>
+      <c r="G250" s="3">
+        <v>0</v>
+      </c>
+      <c r="H250" s="3">
+        <v>10</v>
+      </c>
+      <c r="I250" s="3">
+        <v>4</v>
+      </c>
+      <c r="J250" s="3">
+        <v>7100000</v>
+      </c>
+      <c r="K250" s="3">
+        <v>410000</v>
+      </c>
+      <c r="L250" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M250" s="3">
+        <v>0</v>
+      </c>
+      <c r="N250" s="3">
+        <v>0</v>
+      </c>
+      <c r="O250" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P250" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q250" s="3">
         <v>0</v>
       </c>
     </row>
@@ -14610,10 +14849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
-  <dimension ref="C5:R38"/>
+  <dimension ref="C5:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32:R33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15327,7 +15566,7 @@
         <v>4200</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ref="F23:F38" si="5">E22</f>
+        <f t="shared" ref="F23:F44" si="5">E22</f>
         <v>0</v>
       </c>
       <c r="G23" s="5">
@@ -15663,7 +15902,7 @@
         <v>26</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D38" si="10">D29</f>
+        <f t="shared" ref="D31:D44" si="10">D29</f>
         <v>1</v>
       </c>
       <c r="E31" s="5">
@@ -15965,16 +16204,15 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
-        <f t="shared" si="5"/>
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="6"/>
-        <v>540000</v>
+        <v>470000</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
-        <v>28.571428571428573</v>
+        <v>11.904761904761905</v>
       </c>
       <c r="J38">
         <f t="shared" si="8"/>
@@ -15982,15 +16220,294 @@
       </c>
       <c r="K38">
         <f t="shared" si="9"/>
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="M38">
         <v>33</v>
       </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
       <c r="O38">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <v>400000</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" ref="G39:G44" si="11">IF(D39=1,E39+F38,F39+E38)</f>
+        <v>600000</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H44" si="12">100*(G39-G38)/G38</f>
+        <v>27.659574468085108</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39:J44" si="13">E39/10000</f>
+        <v>40</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K44" si="14">F39/20000</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39:O44" si="15">IF((MOD(C39,2))=1,J40,K38)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <f>E41/2</f>
+        <v>300000</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="11"/>
+        <v>700000</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>35</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>600000</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" ref="F41:F44" si="16">E42/2</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="11"/>
+        <v>900000</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="12"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>36</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <f t="shared" si="16"/>
+        <v>400000</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="12"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>37</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>38</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>800000</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="11"/>
+        <v>1200000</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>38</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="11"/>
+        <v>800000</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="12"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>39</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A544991-D08C-4C04-B666-5FF9F0410D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC031241-CBF5-44B7-854B-DBB5612A0035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="283">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1082,6 +1082,29 @@
   </si>
   <si>
     <t>무림노리개2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검4</t>
+  </si>
+  <si>
+    <t>극락노리개3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림노리개3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1528,11 +1551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q250"/>
+  <dimension ref="A1:Q254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I256" sqref="I256"/>
+      <selection pane="bottomLeft" activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13221,7 +13244,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A250" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A254" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -14800,7 +14823,7 @@
         <v>40000000</v>
       </c>
       <c r="E250" s="3">
-        <v>5500000</v>
+        <v>5600000</v>
       </c>
       <c r="F250" s="3">
         <v>80</v>
@@ -14836,6 +14859,222 @@
         <v>0</v>
       </c>
       <c r="Q250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A251" s="3">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C251" s="3">
+        <v>3</v>
+      </c>
+      <c r="D251" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E251" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F251" s="3">
+        <v>80</v>
+      </c>
+      <c r="G251" s="3">
+        <v>0</v>
+      </c>
+      <c r="H251" s="3">
+        <v>60</v>
+      </c>
+      <c r="I251" s="3">
+        <v>27</v>
+      </c>
+      <c r="J251" s="3">
+        <v>0</v>
+      </c>
+      <c r="K251" s="3">
+        <v>30</v>
+      </c>
+      <c r="L251" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M251" s="3">
+        <v>0</v>
+      </c>
+      <c r="N251" s="3">
+        <v>0</v>
+      </c>
+      <c r="O251" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P251" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A252" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D252" s="3">
+        <v>0</v>
+      </c>
+      <c r="E252" s="3">
+        <v>0</v>
+      </c>
+      <c r="F252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G252" s="3">
+        <v>0</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0</v>
+      </c>
+      <c r="I252" s="3">
+        <v>113</v>
+      </c>
+      <c r="J252" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K252" s="3">
+        <v>0</v>
+      </c>
+      <c r="L252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M252" s="3">
+        <v>0</v>
+      </c>
+      <c r="N252" s="3">
+        <v>0</v>
+      </c>
+      <c r="O252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P252" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A253" s="3">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D253" s="3">
+        <v>0</v>
+      </c>
+      <c r="E253" s="3">
+        <v>0</v>
+      </c>
+      <c r="F253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G253" s="3">
+        <v>0</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0</v>
+      </c>
+      <c r="I253" s="3">
+        <v>113</v>
+      </c>
+      <c r="J253" s="3">
+        <v>2</v>
+      </c>
+      <c r="K253" s="3">
+        <v>0</v>
+      </c>
+      <c r="L253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M253" s="3">
+        <v>0</v>
+      </c>
+      <c r="N253" s="3">
+        <v>0</v>
+      </c>
+      <c r="O253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P253" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C254" s="3">
+        <v>4</v>
+      </c>
+      <c r="D254" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E254" s="3">
+        <v>5700000</v>
+      </c>
+      <c r="F254" s="3">
+        <v>80</v>
+      </c>
+      <c r="G254" s="3">
+        <v>0</v>
+      </c>
+      <c r="H254" s="3">
+        <v>15</v>
+      </c>
+      <c r="I254" s="3">
+        <v>4</v>
+      </c>
+      <c r="J254" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="K254" s="3">
+        <v>415000</v>
+      </c>
+      <c r="L254" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M254" s="3">
+        <v>0</v>
+      </c>
+      <c r="N254" s="3">
+        <v>0</v>
+      </c>
+      <c r="O254" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P254" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q254" s="3">
         <v>0</v>
       </c>
     </row>
@@ -14852,7 +15091,7 @@
   <dimension ref="C5:R53"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="T31" sqref="T31:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15566,7 +15805,7 @@
         <v>4200</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ref="F23:F44" si="5">E22</f>
+        <f t="shared" ref="F23:F39" si="5">E22</f>
         <v>0</v>
       </c>
       <c r="G23" s="5">
@@ -16307,6 +16546,9 @@
       <c r="M40">
         <v>35</v>
       </c>
+      <c r="N40" t="s">
+        <v>281</v>
+      </c>
       <c r="O40">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -16345,6 +16587,9 @@
       </c>
       <c r="M41">
         <v>36</v>
+      </c>
+      <c r="N41" t="s">
+        <v>282</v>
       </c>
       <c r="O41">
         <f t="shared" si="15"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC031241-CBF5-44B7-854B-DBB5612A0035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC33591-562D-4825-B724-CB21539C60F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="289">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,6 +1105,30 @@
   </si>
   <si>
     <t>무림노리개3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락검4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락노리개4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림검4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림노리개4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1551,11 +1575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q254"/>
+  <dimension ref="A1:Q258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C243" sqref="C243"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J256" sqref="J256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13244,7 +13268,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A254" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A258" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -15075,6 +15099,222 @@
         <v>0</v>
       </c>
       <c r="Q254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A255" s="3">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C255" s="3">
+        <v>3</v>
+      </c>
+      <c r="D255" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F255" s="3">
+        <v>80</v>
+      </c>
+      <c r="G255" s="3">
+        <v>0</v>
+      </c>
+      <c r="H255" s="3">
+        <v>80</v>
+      </c>
+      <c r="I255" s="3">
+        <v>27</v>
+      </c>
+      <c r="J255" s="3">
+        <v>0</v>
+      </c>
+      <c r="K255" s="3">
+        <v>30</v>
+      </c>
+      <c r="L255" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M255" s="3">
+        <v>0</v>
+      </c>
+      <c r="N255" s="3">
+        <v>0</v>
+      </c>
+      <c r="O255" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P255" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A256" s="3">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D256" s="3">
+        <v>0</v>
+      </c>
+      <c r="E256" s="3">
+        <v>0</v>
+      </c>
+      <c r="F256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G256" s="3">
+        <v>0</v>
+      </c>
+      <c r="H256" s="3">
+        <v>0</v>
+      </c>
+      <c r="I256" s="3">
+        <v>113</v>
+      </c>
+      <c r="J256" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K256" s="3">
+        <v>0</v>
+      </c>
+      <c r="L256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M256" s="3">
+        <v>0</v>
+      </c>
+      <c r="N256" s="3">
+        <v>0</v>
+      </c>
+      <c r="O256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P256" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q256" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A257" s="3">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D257" s="3">
+        <v>0</v>
+      </c>
+      <c r="E257" s="3">
+        <v>0</v>
+      </c>
+      <c r="F257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G257" s="3">
+        <v>0</v>
+      </c>
+      <c r="H257" s="3">
+        <v>0</v>
+      </c>
+      <c r="I257" s="3">
+        <v>113</v>
+      </c>
+      <c r="J257" s="3">
+        <v>3</v>
+      </c>
+      <c r="K257" s="3">
+        <v>0</v>
+      </c>
+      <c r="L257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M257" s="3">
+        <v>0</v>
+      </c>
+      <c r="N257" s="3">
+        <v>0</v>
+      </c>
+      <c r="O257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P257" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A258" s="3">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C258" s="3">
+        <v>4</v>
+      </c>
+      <c r="D258" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E258" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="F258" s="3">
+        <v>80</v>
+      </c>
+      <c r="G258" s="3">
+        <v>0</v>
+      </c>
+      <c r="H258" s="3">
+        <v>20</v>
+      </c>
+      <c r="I258" s="3">
+        <v>4</v>
+      </c>
+      <c r="J258" s="3">
+        <v>7300000</v>
+      </c>
+      <c r="K258" s="3">
+        <v>420000</v>
+      </c>
+      <c r="L258" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M258" s="3">
+        <v>0</v>
+      </c>
+      <c r="N258" s="3">
+        <v>0</v>
+      </c>
+      <c r="O258" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P258" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q258" s="3">
         <v>0</v>
       </c>
     </row>
@@ -15091,7 +15331,7 @@
   <dimension ref="C5:R53"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31:T32"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16628,6 +16868,9 @@
       <c r="M42">
         <v>37</v>
       </c>
+      <c r="N42" t="s">
+        <v>287</v>
+      </c>
       <c r="O42">
         <f t="shared" si="15"/>
         <v>80</v>
@@ -16666,6 +16909,9 @@
       </c>
       <c r="M43">
         <v>38</v>
+      </c>
+      <c r="N43" t="s">
+        <v>288</v>
       </c>
       <c r="O43">
         <f t="shared" si="15"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC33591-562D-4825-B724-CB21539C60F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C95AA9-B051-45F0-9495-53B768DA714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="312">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1130,6 +1130,81 @@
   <si>
     <t>무림노리개4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락노리개5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나선비경검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락검5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나선노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림노리개5</t>
+  </si>
+  <si>
+    <t>무림노리개6</t>
+  </si>
+  <si>
+    <t>무림노리개7</t>
+  </si>
+  <si>
+    <t>무림노리개8</t>
+  </si>
+  <si>
+    <t>무림노리개9</t>
+  </si>
+  <si>
+    <t>무림노리개10</t>
+  </si>
+  <si>
+    <t>무림노리개11</t>
+  </si>
+  <si>
+    <t>무림노리개12</t>
+  </si>
+  <si>
+    <t>무림검5</t>
+  </si>
+  <si>
+    <t>무림검6</t>
+  </si>
+  <si>
+    <t>무림검7</t>
+  </si>
+  <si>
+    <t>무림검8</t>
+  </si>
+  <si>
+    <t>무림검9</t>
+  </si>
+  <si>
+    <t>무림검10</t>
+  </si>
+  <si>
+    <t>무림검11</t>
+  </si>
+  <si>
+    <t>무림검12</t>
+  </si>
+  <si>
+    <t>무림검13</t>
   </si>
 </sst>
 </file>
@@ -1575,11 +1650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q258"/>
+  <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J256" sqref="J256"/>
+      <selection pane="bottomLeft" activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13268,7 +13343,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A258" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A264" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -15315,6 +15390,330 @@
         <v>0</v>
       </c>
       <c r="Q258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A259" s="3">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C259" s="3">
+        <v>3</v>
+      </c>
+      <c r="D259" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E259" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F259" s="3">
+        <v>80</v>
+      </c>
+      <c r="G259" s="3">
+        <v>0</v>
+      </c>
+      <c r="H259" s="3">
+        <v>110</v>
+      </c>
+      <c r="I259" s="3">
+        <v>27</v>
+      </c>
+      <c r="J259" s="3">
+        <v>0</v>
+      </c>
+      <c r="K259" s="3">
+        <v>30</v>
+      </c>
+      <c r="L259" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M259" s="3">
+        <v>0</v>
+      </c>
+      <c r="N259" s="3">
+        <v>0</v>
+      </c>
+      <c r="O259" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P259" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A260" s="3">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D260" s="3">
+        <v>0</v>
+      </c>
+      <c r="E260" s="3">
+        <v>0</v>
+      </c>
+      <c r="F260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G260" s="3">
+        <v>0</v>
+      </c>
+      <c r="H260" s="3">
+        <v>0</v>
+      </c>
+      <c r="I260" s="3">
+        <v>113</v>
+      </c>
+      <c r="J260" s="3">
+        <v>5</v>
+      </c>
+      <c r="K260" s="3">
+        <v>0</v>
+      </c>
+      <c r="L260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M260" s="3">
+        <v>0</v>
+      </c>
+      <c r="N260" s="3">
+        <v>0</v>
+      </c>
+      <c r="O260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P260" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A261" s="3">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0</v>
+      </c>
+      <c r="E261" s="3">
+        <v>0</v>
+      </c>
+      <c r="F261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G261" s="3">
+        <v>0</v>
+      </c>
+      <c r="H261" s="3">
+        <v>0</v>
+      </c>
+      <c r="I261" s="3">
+        <v>113</v>
+      </c>
+      <c r="J261" s="3">
+        <v>8</v>
+      </c>
+      <c r="K261" s="3">
+        <v>0</v>
+      </c>
+      <c r="L261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M261" s="3">
+        <v>0</v>
+      </c>
+      <c r="N261" s="3">
+        <v>0</v>
+      </c>
+      <c r="O261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P261" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A262" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0</v>
+      </c>
+      <c r="E262" s="3">
+        <v>0</v>
+      </c>
+      <c r="F262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G262" s="3">
+        <v>0</v>
+      </c>
+      <c r="H262" s="3">
+        <v>0</v>
+      </c>
+      <c r="I262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J262" s="3">
+        <v>0</v>
+      </c>
+      <c r="K262" s="3">
+        <v>0</v>
+      </c>
+      <c r="L262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M262" s="3">
+        <v>0</v>
+      </c>
+      <c r="N262" s="3">
+        <v>0</v>
+      </c>
+      <c r="O262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P262" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A263" s="3">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C263" s="3">
+        <v>4</v>
+      </c>
+      <c r="D263" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E263" s="3">
+        <v>5900000</v>
+      </c>
+      <c r="F263" s="3">
+        <v>80</v>
+      </c>
+      <c r="G263" s="3">
+        <v>0</v>
+      </c>
+      <c r="H263" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="I263" s="3">
+        <v>4</v>
+      </c>
+      <c r="J263" s="3">
+        <v>7400000</v>
+      </c>
+      <c r="K263" s="3">
+        <v>425000</v>
+      </c>
+      <c r="L263" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M263" s="3">
+        <v>0</v>
+      </c>
+      <c r="N263" s="3">
+        <v>0</v>
+      </c>
+      <c r="O263" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P263" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A264" s="3">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D264" s="3">
+        <v>0</v>
+      </c>
+      <c r="E264" s="3">
+        <v>0</v>
+      </c>
+      <c r="F264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G264" s="3">
+        <v>0</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0</v>
+      </c>
+      <c r="I264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J264" s="3">
+        <v>0</v>
+      </c>
+      <c r="K264" s="3">
+        <v>0</v>
+      </c>
+      <c r="L264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M264" s="3">
+        <v>0</v>
+      </c>
+      <c r="N264" s="3">
+        <v>0</v>
+      </c>
+      <c r="O264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P264" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="3">
         <v>0</v>
       </c>
     </row>
@@ -15328,16 +15727,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
-  <dimension ref="C5:R53"/>
+  <dimension ref="C5:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
@@ -16381,7 +16780,7 @@
         <v>26</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D44" si="10">D29</f>
+        <f t="shared" ref="D31:D60" si="10">D29</f>
         <v>1</v>
       </c>
       <c r="E31" s="5">
@@ -16750,7 +17149,7 @@
         <v>276</v>
       </c>
       <c r="O39">
-        <f t="shared" ref="O39:O44" si="15">IF((MOD(C39,2))=1,J40,K38)</f>
+        <f t="shared" ref="O39:O60" si="15">IF((MOD(C39,2))=1,J40,K38)</f>
         <v>10</v>
       </c>
     </row>
@@ -16929,15 +17328,15 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>550000</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="11"/>
-        <v>800000</v>
+        <v>1350000</v>
       </c>
       <c r="H44">
         <f t="shared" si="12"/>
-        <v>-33.333333333333336</v>
+        <v>12.5</v>
       </c>
       <c r="J44">
         <f t="shared" si="13"/>
@@ -16945,60 +17344,674 @@
       </c>
       <c r="K44">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="M44">
         <v>39</v>
       </c>
+      <c r="N44" t="s">
+        <v>303</v>
+      </c>
       <c r="O44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1100000</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" ref="F45:F60" si="17">E46/2</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" ref="G45:G60" si="18">IF(D45=1,E45+F44,F45+E44)</f>
+        <v>1650000</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H60" si="19">100*(G45-G44)/G44</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:J60" si="20">E45/10000</f>
+        <v>110</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ref="K45:K60" si="21">F45/20000</f>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>40</v>
+      </c>
+      <c r="N45" t="s">
+        <v>295</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="15"/>
+        <v>27.5</v>
+      </c>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>41</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="F46" s="5">
+        <f t="shared" si="17"/>
+        <v>750000</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="18"/>
+        <v>1850000</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="19"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="21"/>
+        <v>37.5</v>
+      </c>
+      <c r="M46">
+        <v>41</v>
+      </c>
+      <c r="N46" t="s">
+        <v>304</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="18"/>
+        <v>2250000</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="19"/>
+        <v>21.621621621621621</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="20"/>
+        <v>150</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>42</v>
+      </c>
+      <c r="N47" t="s">
+        <v>296</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="15"/>
+        <v>37.5</v>
+      </c>
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>43</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F48" s="5">
+        <f t="shared" si="17"/>
+        <v>1000000</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="18"/>
+        <v>2500000</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="19"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="M48">
+        <v>43</v>
+      </c>
+      <c r="N48" t="s">
+        <v>305</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>44</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="18"/>
+        <v>3000000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="20"/>
+        <v>200</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>44</v>
+      </c>
+      <c r="N49" t="s">
+        <v>297</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>45</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="5">
+        <f t="shared" si="17"/>
+        <v>1400000</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="18"/>
+        <v>3400000</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="19"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="M50">
+        <v>45</v>
+      </c>
+      <c r="N50" t="s">
+        <v>306</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="15"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>46</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2800000</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="18"/>
+        <v>4200000</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="19"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="20"/>
+        <v>280</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>46</v>
+      </c>
+      <c r="N51" t="s">
+        <v>298</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>47</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="F52" s="5">
+        <f t="shared" si="17"/>
+        <v>1900000</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="18"/>
+        <v>4700000</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="19"/>
+        <v>11.904761904761905</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="21"/>
+        <v>95</v>
+      </c>
+      <c r="M52">
+        <v>47</v>
+      </c>
+      <c r="N52" t="s">
+        <v>307</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="15"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>48</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3800000</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="18"/>
+        <v>5700000</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="19"/>
+        <v>21.276595744680851</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="20"/>
+        <v>380</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>48</v>
+      </c>
+      <c r="N53" t="s">
+        <v>299</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="15"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>49</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
+        <f t="shared" si="17"/>
+        <v>2500000</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="18"/>
+        <v>6300000</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="19"/>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="21"/>
+        <v>125</v>
+      </c>
+      <c r="M54">
+        <v>49</v>
+      </c>
+      <c r="N54" t="s">
+        <v>308</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="15"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="18"/>
+        <v>7500000</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="19"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>50</v>
+      </c>
+      <c r="N55" t="s">
+        <v>300</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
+        <f t="shared" si="17"/>
+        <v>3250000</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="18"/>
+        <v>8250000</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="21"/>
+        <v>162.5</v>
+      </c>
+      <c r="M56">
+        <v>51</v>
+      </c>
+      <c r="N56" t="s">
+        <v>309</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="15"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>52</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>6500000</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="18"/>
+        <v>9750000</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="19"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="20"/>
+        <v>650</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>52</v>
+      </c>
+      <c r="N57" t="s">
+        <v>301</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="15"/>
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>53</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <f t="shared" si="17"/>
+        <v>4000000</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="18"/>
+        <v>10500000</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="19"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="21"/>
+        <v>200</v>
+      </c>
+      <c r="M58">
+        <v>53</v>
+      </c>
+      <c r="N58" t="s">
+        <v>310</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="15"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>8000000</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="18"/>
+        <v>12000000</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="19"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="20"/>
+        <v>800</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>54</v>
+      </c>
+      <c r="N59" t="s">
+        <v>302</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="18"/>
+        <v>8000000</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="19"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>55</v>
+      </c>
+      <c r="N60" t="s">
+        <v>311</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C95AA9-B051-45F0-9495-53B768DA714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F3C26-4127-456D-B9C2-D57EB594E23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="315">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1205,6 +1205,18 @@
   </si>
   <si>
     <t>무림검13</t>
+  </si>
+  <si>
+    <t>나선비경검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1650,11 +1662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q264"/>
+  <dimension ref="A1:Q267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F254" sqref="F254"/>
+      <selection pane="bottomLeft" activeCell="J266" sqref="J266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13343,7 +13355,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A264" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A267" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -15714,6 +15726,168 @@
         <v>0</v>
       </c>
       <c r="Q264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A265" s="3">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0</v>
+      </c>
+      <c r="E265" s="3">
+        <v>0</v>
+      </c>
+      <c r="F265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G265" s="3">
+        <v>0</v>
+      </c>
+      <c r="H265" s="3">
+        <v>0</v>
+      </c>
+      <c r="I265" s="3">
+        <v>113</v>
+      </c>
+      <c r="J265" s="3">
+        <v>12</v>
+      </c>
+      <c r="K265" s="3">
+        <v>0</v>
+      </c>
+      <c r="L265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M265" s="3">
+        <v>0</v>
+      </c>
+      <c r="N265" s="3">
+        <v>0</v>
+      </c>
+      <c r="O265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P265" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A266" s="3">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C266" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D266" s="3">
+        <v>0</v>
+      </c>
+      <c r="E266" s="3">
+        <v>0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G266" s="3">
+        <v>0</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0</v>
+      </c>
+      <c r="I266" s="3">
+        <v>113</v>
+      </c>
+      <c r="J266" s="3">
+        <v>16</v>
+      </c>
+      <c r="K266" s="3">
+        <v>0</v>
+      </c>
+      <c r="L266" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M266" s="3">
+        <v>0</v>
+      </c>
+      <c r="N266" s="3">
+        <v>0</v>
+      </c>
+      <c r="O266" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P266" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A267" s="3">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C267" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D267" s="3">
+        <v>0</v>
+      </c>
+      <c r="E267" s="3">
+        <v>0</v>
+      </c>
+      <c r="F267" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G267" s="3">
+        <v>0</v>
+      </c>
+      <c r="H267" s="3">
+        <v>0</v>
+      </c>
+      <c r="I267" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J267" s="3">
+        <v>0</v>
+      </c>
+      <c r="K267" s="3">
+        <v>0</v>
+      </c>
+      <c r="L267" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M267" s="3">
+        <v>0</v>
+      </c>
+      <c r="N267" s="3">
+        <v>0</v>
+      </c>
+      <c r="O267" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P267" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F3C26-4127-456D-B9C2-D57EB594E23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5113D51C-34E9-4128-97DD-3357CD0D2343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1156,66 +1156,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>무림검5</t>
+  </si>
+  <si>
+    <t>나선비경검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연옥검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연옥노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연옥검2</t>
+  </si>
+  <si>
+    <t>연옥노리개2</t>
+  </si>
+  <si>
+    <t>연옥검3</t>
+  </si>
+  <si>
+    <t>연옥노리개3</t>
+  </si>
+  <si>
+    <t>연옥검4</t>
+  </si>
+  <si>
+    <t>연옥노리개4</t>
+  </si>
+  <si>
+    <t>연옥검5</t>
+  </si>
+  <si>
     <t>무림노리개5</t>
-  </si>
-  <si>
-    <t>무림노리개6</t>
-  </si>
-  <si>
-    <t>무림노리개7</t>
-  </si>
-  <si>
-    <t>무림노리개8</t>
-  </si>
-  <si>
-    <t>무림노리개9</t>
-  </si>
-  <si>
-    <t>무림노리개10</t>
-  </si>
-  <si>
-    <t>무림노리개11</t>
-  </si>
-  <si>
-    <t>무림노리개12</t>
-  </si>
-  <si>
-    <t>무림검5</t>
-  </si>
-  <si>
-    <t>무림검6</t>
-  </si>
-  <si>
-    <t>무림검7</t>
-  </si>
-  <si>
-    <t>무림검8</t>
-  </si>
-  <si>
-    <t>무림검9</t>
-  </si>
-  <si>
-    <t>무림검10</t>
-  </si>
-  <si>
-    <t>무림검11</t>
-  </si>
-  <si>
-    <t>무림검12</t>
-  </si>
-  <si>
-    <t>무림검13</t>
-  </si>
-  <si>
-    <t>나선비경검1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스도전검9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스도전검10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1662,11 +1663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q267"/>
+  <dimension ref="A1:Q271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J266" sqref="J266"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H272" sqref="H272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13355,7 +13356,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A267" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A271" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -15735,7 +15736,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C265" s="3">
         <v>-1</v>
@@ -15789,7 +15790,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C266" s="3">
         <v>-1</v>
@@ -15843,7 +15844,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C267" s="3">
         <v>-1</v>
@@ -15888,6 +15889,222 @@
         <v>0</v>
       </c>
       <c r="Q267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A268" s="3">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C268" s="3">
+        <v>3</v>
+      </c>
+      <c r="D268" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E268" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F268" s="3">
+        <v>80</v>
+      </c>
+      <c r="G268" s="3">
+        <v>0</v>
+      </c>
+      <c r="H268" s="3">
+        <v>150</v>
+      </c>
+      <c r="I268" s="3">
+        <v>27</v>
+      </c>
+      <c r="J268" s="3">
+        <v>0</v>
+      </c>
+      <c r="K268" s="3">
+        <v>30</v>
+      </c>
+      <c r="L268" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M268" s="3">
+        <v>0</v>
+      </c>
+      <c r="N268" s="3">
+        <v>0</v>
+      </c>
+      <c r="O268" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P268" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A269" s="3">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C269" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0</v>
+      </c>
+      <c r="E269" s="3">
+        <v>0</v>
+      </c>
+      <c r="F269" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G269" s="3">
+        <v>0</v>
+      </c>
+      <c r="H269" s="3">
+        <v>0</v>
+      </c>
+      <c r="I269" s="3">
+        <v>113</v>
+      </c>
+      <c r="J269" s="3">
+        <v>22</v>
+      </c>
+      <c r="K269" s="3">
+        <v>0</v>
+      </c>
+      <c r="L269" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M269" s="3">
+        <v>0</v>
+      </c>
+      <c r="N269" s="3">
+        <v>0</v>
+      </c>
+      <c r="O269" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P269" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C270" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D270" s="3">
+        <v>0</v>
+      </c>
+      <c r="E270" s="3">
+        <v>0</v>
+      </c>
+      <c r="F270" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G270" s="3">
+        <v>0</v>
+      </c>
+      <c r="H270" s="3">
+        <v>0</v>
+      </c>
+      <c r="I270" s="3">
+        <v>113</v>
+      </c>
+      <c r="J270" s="3">
+        <v>30</v>
+      </c>
+      <c r="K270" s="3">
+        <v>0</v>
+      </c>
+      <c r="L270" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M270" s="3">
+        <v>0</v>
+      </c>
+      <c r="N270" s="3">
+        <v>0</v>
+      </c>
+      <c r="O270" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P270" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A271" s="3">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C271" s="3">
+        <v>4</v>
+      </c>
+      <c r="D271" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E271" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="F271" s="3">
+        <v>80</v>
+      </c>
+      <c r="G271" s="3">
+        <v>0</v>
+      </c>
+      <c r="H271" s="3">
+        <v>40</v>
+      </c>
+      <c r="I271" s="3">
+        <v>4</v>
+      </c>
+      <c r="J271" s="3">
+        <v>7500000</v>
+      </c>
+      <c r="K271" s="3">
+        <v>430000</v>
+      </c>
+      <c r="L271" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M271" s="3">
+        <v>0</v>
+      </c>
+      <c r="N271" s="3">
+        <v>0</v>
+      </c>
+      <c r="O271" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P271" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q271" s="3">
         <v>0</v>
       </c>
     </row>
@@ -15901,16 +16118,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
-  <dimension ref="C5:R60"/>
+  <dimension ref="C5:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44:O45"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O47" sqref="G46:O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
@@ -16954,7 +17172,7 @@
         <v>26</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D60" si="10">D29</f>
+        <f t="shared" ref="D31:D69" si="10">D29</f>
         <v>1</v>
       </c>
       <c r="E31" s="5">
@@ -17524,7 +17742,7 @@
         <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O44">
         <f t="shared" si="15"/>
@@ -17566,7 +17784,7 @@
         <v>40</v>
       </c>
       <c r="N45" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="O45">
         <f t="shared" si="15"/>
@@ -17583,16 +17801,15 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5">
-        <f t="shared" si="17"/>
-        <v>750000</v>
+        <v>800000</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="18"/>
-        <v>1850000</v>
+        <v>1900000</v>
       </c>
       <c r="H46">
         <f t="shared" si="19"/>
-        <v>12.121212121212121</v>
+        <v>15.151515151515152</v>
       </c>
       <c r="J46">
         <f t="shared" si="20"/>
@@ -17600,13 +17817,13 @@
       </c>
       <c r="K46">
         <f t="shared" si="21"/>
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="M46">
         <v>41</v>
       </c>
       <c r="N46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O46">
         <f t="shared" si="15"/>
@@ -17630,11 +17847,11 @@
       </c>
       <c r="G47" s="5">
         <f t="shared" si="18"/>
-        <v>2250000</v>
+        <v>2300000</v>
       </c>
       <c r="H47">
         <f t="shared" si="19"/>
-        <v>21.621621621621621</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="J47">
         <f t="shared" si="20"/>
@@ -17648,11 +17865,11 @@
         <v>42</v>
       </c>
       <c r="N47" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="O47">
         <f t="shared" si="15"/>
-        <v>37.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.3">
@@ -17665,16 +17882,15 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5">
-        <f t="shared" si="17"/>
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" si="18"/>
-        <v>2500000</v>
+        <v>2700000</v>
       </c>
       <c r="H48">
         <f t="shared" si="19"/>
-        <v>11.111111111111111</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="J48">
         <f t="shared" si="20"/>
@@ -17682,7 +17898,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="21"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M48">
         <v>43</v>
@@ -17712,11 +17928,11 @@
       </c>
       <c r="G49" s="5">
         <f t="shared" si="18"/>
-        <v>3000000</v>
+        <v>3200000</v>
       </c>
       <c r="H49">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>18.518518518518519</v>
       </c>
       <c r="J49">
         <f t="shared" si="20"/>
@@ -17730,11 +17946,11 @@
         <v>44</v>
       </c>
       <c r="N49" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="O49">
         <f t="shared" si="15"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
@@ -17747,16 +17963,15 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5">
-        <f t="shared" si="17"/>
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" si="18"/>
-        <v>3400000</v>
+        <v>3600000</v>
       </c>
       <c r="H50">
         <f t="shared" si="19"/>
-        <v>13.333333333333334</v>
+        <v>12.5</v>
       </c>
       <c r="J50">
         <f t="shared" si="20"/>
@@ -17764,13 +17979,13 @@
       </c>
       <c r="K50">
         <f t="shared" si="21"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M50">
         <v>45</v>
       </c>
       <c r="N50" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O50">
         <f t="shared" si="15"/>
@@ -17794,11 +18009,11 @@
       </c>
       <c r="G51" s="5">
         <f t="shared" si="18"/>
-        <v>4200000</v>
+        <v>4400000</v>
       </c>
       <c r="H51">
         <f t="shared" si="19"/>
-        <v>23.529411764705884</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="J51">
         <f t="shared" si="20"/>
@@ -17812,11 +18027,11 @@
         <v>46</v>
       </c>
       <c r="N51" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="O51">
         <f t="shared" si="15"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.3">
@@ -17829,16 +18044,15 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
-        <f t="shared" si="17"/>
-        <v>1900000</v>
+        <v>2000000</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" si="18"/>
-        <v>4700000</v>
+        <v>4800000</v>
       </c>
       <c r="H52">
         <f t="shared" si="19"/>
-        <v>11.904761904761905</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="J52">
         <f t="shared" si="20"/>
@@ -17846,13 +18060,13 @@
       </c>
       <c r="K52">
         <f t="shared" si="21"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M52">
         <v>47</v>
       </c>
       <c r="N52" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O52">
         <f t="shared" si="15"/>
@@ -17876,11 +18090,11 @@
       </c>
       <c r="G53" s="5">
         <f t="shared" si="18"/>
-        <v>5700000</v>
+        <v>5800000</v>
       </c>
       <c r="H53">
         <f t="shared" si="19"/>
-        <v>21.276595744680851</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="J53">
         <f t="shared" si="20"/>
@@ -17894,11 +18108,11 @@
         <v>48</v>
       </c>
       <c r="N53" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="O53">
         <f t="shared" si="15"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.3">
@@ -17911,7 +18125,6 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5">
-        <f t="shared" si="17"/>
         <v>2500000</v>
       </c>
       <c r="G54" s="5">
@@ -17920,7 +18133,7 @@
       </c>
       <c r="H54">
         <f t="shared" si="19"/>
-        <v>10.526315789473685</v>
+        <v>8.6206896551724146</v>
       </c>
       <c r="J54">
         <f t="shared" si="20"/>
@@ -17934,7 +18147,7 @@
         <v>49</v>
       </c>
       <c r="N54" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O54">
         <f t="shared" si="15"/>
@@ -17975,9 +18188,6 @@
       <c r="M55">
         <v>50</v>
       </c>
-      <c r="N55" t="s">
-        <v>300</v>
-      </c>
       <c r="O55">
         <f t="shared" si="15"/>
         <v>125</v>
@@ -17993,16 +18203,15 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5">
-        <f t="shared" si="17"/>
-        <v>3250000</v>
+        <v>3000000</v>
       </c>
       <c r="G56" s="5">
         <f t="shared" si="18"/>
-        <v>8250000</v>
+        <v>8000000</v>
       </c>
       <c r="H56">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J56">
         <f t="shared" si="20"/>
@@ -18010,13 +18219,10 @@
       </c>
       <c r="K56">
         <f t="shared" si="21"/>
-        <v>162.5</v>
+        <v>150</v>
       </c>
       <c r="M56">
         <v>51</v>
-      </c>
-      <c r="N56" t="s">
-        <v>309</v>
       </c>
       <c r="O56">
         <f t="shared" si="15"/>
@@ -18040,11 +18246,11 @@
       </c>
       <c r="G57" s="5">
         <f t="shared" si="18"/>
-        <v>9750000</v>
+        <v>9500000</v>
       </c>
       <c r="H57">
         <f t="shared" si="19"/>
-        <v>18.181818181818183</v>
+        <v>18.75</v>
       </c>
       <c r="J57">
         <f t="shared" si="20"/>
@@ -18057,12 +18263,9 @@
       <c r="M57">
         <v>52</v>
       </c>
-      <c r="N57" t="s">
-        <v>301</v>
-      </c>
       <c r="O57">
         <f t="shared" si="15"/>
-        <v>162.5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.3">
@@ -18075,7 +18278,6 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5">
-        <f t="shared" si="17"/>
         <v>4000000</v>
       </c>
       <c r="G58" s="5">
@@ -18084,7 +18286,7 @@
       </c>
       <c r="H58">
         <f t="shared" si="19"/>
-        <v>7.6923076923076925</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="J58">
         <f t="shared" si="20"/>
@@ -18097,9 +18299,6 @@
       <c r="M58">
         <v>53</v>
       </c>
-      <c r="N58" t="s">
-        <v>310</v>
-      </c>
       <c r="O58">
         <f t="shared" si="15"/>
         <v>800</v>
@@ -18139,9 +18338,6 @@
       <c r="M59">
         <v>54</v>
       </c>
-      <c r="N59" t="s">
-        <v>302</v>
-      </c>
       <c r="O59">
         <f t="shared" si="15"/>
         <v>200</v>
@@ -18157,16 +18353,15 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" si="18"/>
-        <v>8000000</v>
+        <v>13000000</v>
       </c>
       <c r="H60">
         <f t="shared" si="19"/>
-        <v>-33.333333333333336</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="J60">
         <f t="shared" si="20"/>
@@ -18174,17 +18369,353 @@
       </c>
       <c r="K60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="M60">
         <v>55</v>
       </c>
-      <c r="N60" t="s">
-        <v>311</v>
-      </c>
       <c r="O60">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" ref="F61:F69" si="22">E62/2</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" ref="G61:G69" si="23">IF(D61=1,E61+F60,F61+E60)</f>
+        <v>15000000</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61:H69" si="24">100*(G61-G60)/G60</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ref="J61:J69" si="25">E61/10000</f>
+        <v>1000</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ref="K61:K69" si="26">F61/20000</f>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>56</v>
+      </c>
+      <c r="O61">
+        <f t="shared" ref="O61:O69" si="27">IF((MOD(C61,2))=1,J62,K60)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <v>7000000</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="23"/>
+        <v>17000000</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="24"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="26"/>
+        <v>350</v>
+      </c>
+      <c r="M62">
+        <v>57</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="27"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>58</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" si="23"/>
+        <v>19000000</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="24"/>
+        <v>11.764705882352942</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="25"/>
+        <v>1200</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>58</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="27"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>59</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
+        <v>9000000</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="23"/>
+        <v>21000000</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="24"/>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="26"/>
+        <v>450</v>
+      </c>
+      <c r="M64">
+        <v>59</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="27"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>14500000</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="23"/>
+        <v>23500000</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="24"/>
+        <v>11.904761904761905</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="25"/>
+        <v>1450</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>60</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="27"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>61</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="23"/>
+        <v>26500000</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="24"/>
+        <v>12.76595744680851</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="26"/>
+        <v>600</v>
+      </c>
+      <c r="M66">
+        <v>61</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="27"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>62</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>17000000</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="23"/>
+        <v>29000000</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="24"/>
+        <v>9.433962264150944</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="25"/>
+        <v>1700</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>62</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="27"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>63</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <v>15000000</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="23"/>
+        <v>32000000</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="24"/>
+        <v>10.344827586206897</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="26"/>
+        <v>750</v>
+      </c>
+      <c r="M68">
+        <v>63</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="27"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>64</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" si="23"/>
+        <v>35000000</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="24"/>
+        <v>9.375</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="25"/>
+        <v>2000</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>64</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="27"/>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5113D51C-34E9-4128-97DD-3357CD0D2343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096033BB-D62C-4479-88A3-4C35B7EB07FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="317">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1217,6 +1217,22 @@
   </si>
   <si>
     <t>무림노리개5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,11 +1679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q271"/>
+  <dimension ref="A1:Q275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H272" sqref="H272"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13356,7 +13372,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A271" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A275" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -16105,6 +16121,222 @@
         <v>0</v>
       </c>
       <c r="Q271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A272" s="3">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C272" s="3">
+        <v>3</v>
+      </c>
+      <c r="D272" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E272" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F272" s="3">
+        <v>80</v>
+      </c>
+      <c r="G272" s="3">
+        <v>0</v>
+      </c>
+      <c r="H272" s="3">
+        <v>200</v>
+      </c>
+      <c r="I272" s="3">
+        <v>27</v>
+      </c>
+      <c r="J272" s="3">
+        <v>0</v>
+      </c>
+      <c r="K272" s="3">
+        <v>30</v>
+      </c>
+      <c r="L272" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M272" s="3">
+        <v>0</v>
+      </c>
+      <c r="N272" s="3">
+        <v>0</v>
+      </c>
+      <c r="O272" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P272" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A273" s="3">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C273" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D273" s="3">
+        <v>0</v>
+      </c>
+      <c r="E273" s="3">
+        <v>0</v>
+      </c>
+      <c r="F273" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G273" s="3">
+        <v>0</v>
+      </c>
+      <c r="H273" s="3">
+        <v>0</v>
+      </c>
+      <c r="I273" s="3">
+        <v>113</v>
+      </c>
+      <c r="J273" s="3">
+        <v>40</v>
+      </c>
+      <c r="K273" s="3">
+        <v>0</v>
+      </c>
+      <c r="L273" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M273" s="3">
+        <v>0</v>
+      </c>
+      <c r="N273" s="3">
+        <v>0</v>
+      </c>
+      <c r="O273" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P273" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A274" s="3">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C274" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D274" s="3">
+        <v>0</v>
+      </c>
+      <c r="E274" s="3">
+        <v>0</v>
+      </c>
+      <c r="F274" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G274" s="3">
+        <v>0</v>
+      </c>
+      <c r="H274" s="3">
+        <v>0</v>
+      </c>
+      <c r="I274" s="3">
+        <v>113</v>
+      </c>
+      <c r="J274" s="3">
+        <v>50</v>
+      </c>
+      <c r="K274" s="3">
+        <v>0</v>
+      </c>
+      <c r="L274" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M274" s="3">
+        <v>0</v>
+      </c>
+      <c r="N274" s="3">
+        <v>0</v>
+      </c>
+      <c r="O274" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P274" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q274" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A275" s="3">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C275" s="3">
+        <v>4</v>
+      </c>
+      <c r="D275" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E275" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="F275" s="3">
+        <v>80</v>
+      </c>
+      <c r="G275" s="3">
+        <v>0</v>
+      </c>
+      <c r="H275" s="3">
+        <v>60</v>
+      </c>
+      <c r="I275" s="3">
+        <v>4</v>
+      </c>
+      <c r="J275" s="3">
+        <v>7600000</v>
+      </c>
+      <c r="K275" s="3">
+        <v>435000</v>
+      </c>
+      <c r="L275" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M275" s="3">
+        <v>0</v>
+      </c>
+      <c r="N275" s="3">
+        <v>0</v>
+      </c>
+      <c r="O275" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P275" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q275" s="3">
         <v>0</v>
       </c>
     </row>
@@ -16120,8 +16352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
   <dimension ref="C5:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O47" sqref="G46:O47"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17761,7 +17993,7 @@
         <v>1100000</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" ref="F45:F60" si="17">E46/2</f>
+        <f t="shared" ref="F45:F59" si="17">E46/2</f>
         <v>0</v>
       </c>
       <c r="G45" s="5">

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096033BB-D62C-4479-88A3-4C35B7EB07FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94557C8D-8273-48A4-9B8E-345E383ACA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="321">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,6 +1233,22 @@
   </si>
   <si>
     <t>삼천노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1679,11 +1695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q275"/>
+  <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
+      <selection pane="bottomLeft" activeCell="H279" sqref="H279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13372,7 +13388,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A275" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A279" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -16337,6 +16353,222 @@
         <v>0</v>
       </c>
       <c r="Q275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A276" s="3">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C276" s="3">
+        <v>3</v>
+      </c>
+      <c r="D276" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E276" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F276" s="3">
+        <v>80</v>
+      </c>
+      <c r="G276" s="3">
+        <v>0</v>
+      </c>
+      <c r="H276" s="3">
+        <v>280</v>
+      </c>
+      <c r="I276" s="3">
+        <v>27</v>
+      </c>
+      <c r="J276" s="3">
+        <v>0</v>
+      </c>
+      <c r="K276" s="3">
+        <v>30</v>
+      </c>
+      <c r="L276" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M276" s="3">
+        <v>0</v>
+      </c>
+      <c r="N276" s="3">
+        <v>0</v>
+      </c>
+      <c r="O276" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P276" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A277" s="3">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C277" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D277" s="3">
+        <v>0</v>
+      </c>
+      <c r="E277" s="3">
+        <v>0</v>
+      </c>
+      <c r="F277" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G277" s="3">
+        <v>0</v>
+      </c>
+      <c r="H277" s="3">
+        <v>0</v>
+      </c>
+      <c r="I277" s="3">
+        <v>113</v>
+      </c>
+      <c r="J277" s="3">
+        <v>70</v>
+      </c>
+      <c r="K277" s="3">
+        <v>0</v>
+      </c>
+      <c r="L277" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M277" s="3">
+        <v>0</v>
+      </c>
+      <c r="N277" s="3">
+        <v>0</v>
+      </c>
+      <c r="O277" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P277" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A278" s="3">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C278" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D278" s="3">
+        <v>0</v>
+      </c>
+      <c r="E278" s="3">
+        <v>0</v>
+      </c>
+      <c r="F278" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G278" s="3">
+        <v>0</v>
+      </c>
+      <c r="H278" s="3">
+        <v>0</v>
+      </c>
+      <c r="I278" s="3">
+        <v>113</v>
+      </c>
+      <c r="J278" s="3">
+        <v>90</v>
+      </c>
+      <c r="K278" s="3">
+        <v>0</v>
+      </c>
+      <c r="L278" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M278" s="3">
+        <v>0</v>
+      </c>
+      <c r="N278" s="3">
+        <v>0</v>
+      </c>
+      <c r="O278" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P278" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A279" s="3">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C279" s="3">
+        <v>4</v>
+      </c>
+      <c r="D279" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E279" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="F279" s="3">
+        <v>80</v>
+      </c>
+      <c r="G279" s="3">
+        <v>0</v>
+      </c>
+      <c r="H279" s="3">
+        <v>80</v>
+      </c>
+      <c r="I279" s="3">
+        <v>4</v>
+      </c>
+      <c r="J279" s="3">
+        <v>7600000</v>
+      </c>
+      <c r="K279" s="3">
+        <v>435000</v>
+      </c>
+      <c r="L279" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M279" s="3">
+        <v>0</v>
+      </c>
+      <c r="N279" s="3">
+        <v>0</v>
+      </c>
+      <c r="O279" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P279" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q279" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94557C8D-8273-48A4-9B8E-345E383ACA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51529382-BC68-47D4-B151-597D4B5BE290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="325">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1249,6 +1249,22 @@
   </si>
   <si>
     <t>삼천노리개2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1695,11 +1711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q279"/>
+  <dimension ref="A1:Q283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H279" sqref="H279"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13388,7 +13404,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A279" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A283" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -16317,7 +16333,7 @@
         <v>40000000</v>
       </c>
       <c r="E275" s="3">
-        <v>6000000</v>
+        <v>6100000</v>
       </c>
       <c r="F275" s="3">
         <v>80</v>
@@ -16533,7 +16549,7 @@
         <v>40000000</v>
       </c>
       <c r="E279" s="3">
-        <v>6000000</v>
+        <v>6200000</v>
       </c>
       <c r="F279" s="3">
         <v>80</v>
@@ -16548,10 +16564,10 @@
         <v>4</v>
       </c>
       <c r="J279" s="3">
-        <v>7600000</v>
+        <v>7700000</v>
       </c>
       <c r="K279" s="3">
-        <v>435000</v>
+        <v>440000</v>
       </c>
       <c r="L279" s="3">
         <v>-1</v>
@@ -16569,6 +16585,222 @@
         <v>0</v>
       </c>
       <c r="Q279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A280" s="3">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C280" s="3">
+        <v>3</v>
+      </c>
+      <c r="D280" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E280" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F280" s="3">
+        <v>80</v>
+      </c>
+      <c r="G280" s="3">
+        <v>0</v>
+      </c>
+      <c r="H280" s="3">
+        <v>380</v>
+      </c>
+      <c r="I280" s="3">
+        <v>27</v>
+      </c>
+      <c r="J280" s="3">
+        <v>0</v>
+      </c>
+      <c r="K280" s="3">
+        <v>30</v>
+      </c>
+      <c r="L280" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M280" s="3">
+        <v>0</v>
+      </c>
+      <c r="N280" s="3">
+        <v>0</v>
+      </c>
+      <c r="O280" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P280" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A281" s="3">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C281" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D281" s="3">
+        <v>0</v>
+      </c>
+      <c r="E281" s="3">
+        <v>0</v>
+      </c>
+      <c r="F281" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G281" s="3">
+        <v>0</v>
+      </c>
+      <c r="H281" s="3">
+        <v>0</v>
+      </c>
+      <c r="I281" s="3">
+        <v>113</v>
+      </c>
+      <c r="J281" s="3">
+        <v>120</v>
+      </c>
+      <c r="K281" s="3">
+        <v>0</v>
+      </c>
+      <c r="L281" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M281" s="3">
+        <v>0</v>
+      </c>
+      <c r="N281" s="3">
+        <v>0</v>
+      </c>
+      <c r="O281" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P281" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A282" s="3">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C282" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D282" s="3">
+        <v>0</v>
+      </c>
+      <c r="E282" s="3">
+        <v>0</v>
+      </c>
+      <c r="F282" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G282" s="3">
+        <v>0</v>
+      </c>
+      <c r="H282" s="3">
+        <v>0</v>
+      </c>
+      <c r="I282" s="3">
+        <v>113</v>
+      </c>
+      <c r="J282" s="3">
+        <v>150</v>
+      </c>
+      <c r="K282" s="3">
+        <v>0</v>
+      </c>
+      <c r="L282" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M282" s="3">
+        <v>0</v>
+      </c>
+      <c r="N282" s="3">
+        <v>0</v>
+      </c>
+      <c r="O282" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P282" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A283" s="3">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C283" s="3">
+        <v>4</v>
+      </c>
+      <c r="D283" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E283" s="3">
+        <v>6300000</v>
+      </c>
+      <c r="F283" s="3">
+        <v>80</v>
+      </c>
+      <c r="G283" s="3">
+        <v>0</v>
+      </c>
+      <c r="H283" s="3">
+        <v>100</v>
+      </c>
+      <c r="I283" s="3">
+        <v>4</v>
+      </c>
+      <c r="J283" s="3">
+        <v>7800000</v>
+      </c>
+      <c r="K283" s="3">
+        <v>445000</v>
+      </c>
+      <c r="L283" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M283" s="3">
+        <v>0</v>
+      </c>
+      <c r="N283" s="3">
+        <v>0</v>
+      </c>
+      <c r="O283" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P283" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q283" s="3">
         <v>0</v>
       </c>
     </row>
@@ -16585,7 +16817,7 @@
   <dimension ref="C5:R69"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+      <selection activeCell="N51" sqref="N51:O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51529382-BC68-47D4-B151-597D4B5BE290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E6850-81CC-46CC-A838-9DBBB5112BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="330">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1266,6 +1266,25 @@
   <si>
     <t>삼천노리개3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천검4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전검20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연옥노리개5</t>
   </si>
 </sst>
 </file>
@@ -1711,11 +1730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q283"/>
+  <dimension ref="A1:Q287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C283" sqref="C283"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13404,7 +13423,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <f t="shared" ref="A221:A283" si="0">ROW()-2</f>
+        <f t="shared" ref="A221:A284" si="0">ROW()-2</f>
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -16801,6 +16820,222 @@
         <v>0</v>
       </c>
       <c r="Q283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A284" s="3">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C284" s="3">
+        <v>3</v>
+      </c>
+      <c r="D284" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E284" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F284" s="3">
+        <v>80</v>
+      </c>
+      <c r="G284" s="3">
+        <v>0</v>
+      </c>
+      <c r="H284" s="3">
+        <v>500</v>
+      </c>
+      <c r="I284" s="3">
+        <v>27</v>
+      </c>
+      <c r="J284" s="3">
+        <v>0</v>
+      </c>
+      <c r="K284" s="3">
+        <v>30</v>
+      </c>
+      <c r="L284" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M284" s="3">
+        <v>0</v>
+      </c>
+      <c r="N284" s="3">
+        <v>0</v>
+      </c>
+      <c r="O284" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P284" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q284" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A285" s="3">
+        <f t="shared" ref="A285:A287" si="1">ROW()-2</f>
+        <v>283</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C285" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D285" s="3">
+        <v>0</v>
+      </c>
+      <c r="E285" s="3">
+        <v>0</v>
+      </c>
+      <c r="F285" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G285" s="3">
+        <v>0</v>
+      </c>
+      <c r="H285" s="3">
+        <v>0</v>
+      </c>
+      <c r="I285" s="3">
+        <v>113</v>
+      </c>
+      <c r="J285" s="3">
+        <v>180</v>
+      </c>
+      <c r="K285" s="3">
+        <v>0</v>
+      </c>
+      <c r="L285" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M285" s="3">
+        <v>0</v>
+      </c>
+      <c r="N285" s="3">
+        <v>0</v>
+      </c>
+      <c r="O285" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P285" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A286" s="3">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C286" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D286" s="3">
+        <v>0</v>
+      </c>
+      <c r="E286" s="3">
+        <v>0</v>
+      </c>
+      <c r="F286" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G286" s="3">
+        <v>0</v>
+      </c>
+      <c r="H286" s="3">
+        <v>0</v>
+      </c>
+      <c r="I286" s="3">
+        <v>113</v>
+      </c>
+      <c r="J286" s="3">
+        <v>220</v>
+      </c>
+      <c r="K286" s="3">
+        <v>0</v>
+      </c>
+      <c r="L286" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M286" s="3">
+        <v>0</v>
+      </c>
+      <c r="N286" s="3">
+        <v>0</v>
+      </c>
+      <c r="O286" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P286" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A287" s="3">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C287" s="3">
+        <v>4</v>
+      </c>
+      <c r="D287" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E287" s="3">
+        <v>6400000</v>
+      </c>
+      <c r="F287" s="3">
+        <v>80</v>
+      </c>
+      <c r="G287" s="3">
+        <v>0</v>
+      </c>
+      <c r="H287" s="3">
+        <v>125</v>
+      </c>
+      <c r="I287" s="3">
+        <v>4</v>
+      </c>
+      <c r="J287" s="3">
+        <v>7900000</v>
+      </c>
+      <c r="K287" s="3">
+        <v>450000</v>
+      </c>
+      <c r="L287" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M287" s="3">
+        <v>0</v>
+      </c>
+      <c r="N287" s="3">
+        <v>0</v>
+      </c>
+      <c r="O287" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P287" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q287" s="3">
         <v>0</v>
       </c>
     </row>
@@ -16817,7 +17052,7 @@
   <dimension ref="C5:R69"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51:O52"/>
+      <selection activeCell="N52" sqref="N52:N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18884,6 +19119,9 @@
       <c r="M55">
         <v>50</v>
       </c>
+      <c r="N55" t="s">
+        <v>329</v>
+      </c>
       <c r="O55">
         <f t="shared" si="15"/>
         <v>125</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E6850-81CC-46CC-A838-9DBBB5112BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27747776-0ACF-445A-AF45-F788ADEB22F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="334">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1285,6 +1285,22 @@
   </si>
   <si>
     <t>연옥노리개5</t>
+  </si>
+  <si>
+    <t>삼천검5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1730,11 +1746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q287"/>
+  <dimension ref="A1:Q289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G290" sqref="G290"/>
+      <selection pane="bottomLeft" activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16879,7 +16895,7 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <f t="shared" ref="A285:A287" si="1">ROW()-2</f>
+        <f t="shared" ref="A285:A289" si="1">ROW()-2</f>
         <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -17036,6 +17052,114 @@
         <v>0</v>
       </c>
       <c r="Q287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A288" s="3">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C288" s="3">
+        <v>3</v>
+      </c>
+      <c r="D288" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E288" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F288" s="3">
+        <v>80</v>
+      </c>
+      <c r="G288" s="3">
+        <v>0</v>
+      </c>
+      <c r="H288" s="3">
+        <v>650</v>
+      </c>
+      <c r="I288" s="3">
+        <v>27</v>
+      </c>
+      <c r="J288" s="3">
+        <v>0</v>
+      </c>
+      <c r="K288" s="3">
+        <v>30</v>
+      </c>
+      <c r="L288" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M288" s="3">
+        <v>0</v>
+      </c>
+      <c r="N288" s="3">
+        <v>0</v>
+      </c>
+      <c r="O288" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P288" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A289" s="3">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C289" s="3">
+        <v>4</v>
+      </c>
+      <c r="D289" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E289" s="3">
+        <v>6500000</v>
+      </c>
+      <c r="F289" s="3">
+        <v>80</v>
+      </c>
+      <c r="G289" s="3">
+        <v>0</v>
+      </c>
+      <c r="H289" s="3">
+        <v>150</v>
+      </c>
+      <c r="I289" s="3">
+        <v>4</v>
+      </c>
+      <c r="J289" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="K289" s="3">
+        <v>455000</v>
+      </c>
+      <c r="L289" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M289" s="3">
+        <v>0</v>
+      </c>
+      <c r="N289" s="3">
+        <v>0</v>
+      </c>
+      <c r="O289" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P289" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q289" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17051,8 +17175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
   <dimension ref="C5:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52:N55"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56:O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19158,6 +19282,9 @@
       <c r="M56">
         <v>51</v>
       </c>
+      <c r="N56" t="s">
+        <v>332</v>
+      </c>
       <c r="O56">
         <f t="shared" si="15"/>
         <v>650</v>
@@ -19196,6 +19323,9 @@
       </c>
       <c r="M57">
         <v>52</v>
+      </c>
+      <c r="N57" t="s">
+        <v>333</v>
       </c>
       <c r="O57">
         <f t="shared" si="15"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27747776-0ACF-445A-AF45-F788ADEB22F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F152678D-64D9-451C-98EB-9CB0C8EEA061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="338">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,6 +1301,20 @@
   <si>
     <t>천상노리개1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천검6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상검1</t>
+  </si>
+  <si>
+    <t>천상노리개2</t>
   </si>
 </sst>
 </file>
@@ -1746,11 +1760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q289"/>
+  <dimension ref="A1:Q291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B284" sqref="B284"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H292" sqref="H292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16895,7 +16909,7 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <f t="shared" ref="A285:A289" si="1">ROW()-2</f>
+        <f t="shared" ref="A285:A291" si="1">ROW()-2</f>
         <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -17160,6 +17174,114 @@
         <v>0</v>
       </c>
       <c r="Q289" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A290" s="3">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C290" s="3">
+        <v>3</v>
+      </c>
+      <c r="D290" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E290" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F290" s="3">
+        <v>80</v>
+      </c>
+      <c r="G290" s="3">
+        <v>0</v>
+      </c>
+      <c r="H290" s="3">
+        <v>900</v>
+      </c>
+      <c r="I290" s="3">
+        <v>27</v>
+      </c>
+      <c r="J290" s="3">
+        <v>0</v>
+      </c>
+      <c r="K290" s="3">
+        <v>30</v>
+      </c>
+      <c r="L290" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M290" s="3">
+        <v>0</v>
+      </c>
+      <c r="N290" s="3">
+        <v>0</v>
+      </c>
+      <c r="O290" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P290" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A291" s="3">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C291" s="3">
+        <v>4</v>
+      </c>
+      <c r="D291" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E291" s="3">
+        <v>6600000</v>
+      </c>
+      <c r="F291" s="3">
+        <v>80</v>
+      </c>
+      <c r="G291" s="3">
+        <v>0</v>
+      </c>
+      <c r="H291" s="3">
+        <v>200</v>
+      </c>
+      <c r="I291" s="3">
+        <v>4</v>
+      </c>
+      <c r="J291" s="3">
+        <v>8100000</v>
+      </c>
+      <c r="K291" s="3">
+        <v>460000</v>
+      </c>
+      <c r="L291" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M291" s="3">
+        <v>0</v>
+      </c>
+      <c r="N291" s="3">
+        <v>0</v>
+      </c>
+      <c r="O291" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P291" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q291" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17175,8 +17297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FF2D03-155D-4C0A-B518-CB6C3609C4D4}">
   <dimension ref="C5:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56:O57"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19363,9 +19485,12 @@
       <c r="M58">
         <v>53</v>
       </c>
+      <c r="N58" t="s">
+        <v>336</v>
+      </c>
       <c r="O58">
         <f t="shared" si="15"/>
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="59" spans="3:15" x14ac:dyDescent="0.3">
@@ -19377,7 +19502,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="5">
-        <v>8000000</v>
+        <v>9000000</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="17"/>
@@ -19385,15 +19510,15 @@
       </c>
       <c r="G59" s="5">
         <f t="shared" si="18"/>
-        <v>12000000</v>
+        <v>13000000</v>
       </c>
       <c r="H59">
         <f t="shared" si="19"/>
-        <v>14.285714285714286</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="J59">
         <f t="shared" si="20"/>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K59">
         <f t="shared" si="21"/>
@@ -19401,6 +19526,9 @@
       </c>
       <c r="M59">
         <v>54</v>
+      </c>
+      <c r="N59" t="s">
+        <v>337</v>
       </c>
       <c r="O59">
         <f t="shared" si="15"/>
@@ -19421,11 +19549,11 @@
       </c>
       <c r="G60" s="5">
         <f t="shared" si="18"/>
-        <v>13000000</v>
+        <v>14000000</v>
       </c>
       <c r="H60">
         <f t="shared" si="19"/>
-        <v>8.3333333333333339</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="J60">
         <f t="shared" si="20"/>
@@ -19440,7 +19568,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="15"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="61" spans="3:15" x14ac:dyDescent="0.3">
@@ -19452,7 +19580,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="5">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" ref="F61:F69" si="22">E62/2</f>
@@ -19460,15 +19588,15 @@
       </c>
       <c r="G61" s="5">
         <f t="shared" ref="G61:G69" si="23">IF(D61=1,E61+F60,F61+E60)</f>
-        <v>15000000</v>
+        <v>17000000</v>
       </c>
       <c r="H61">
         <f t="shared" ref="H61:H69" si="24">100*(G61-G60)/G60</f>
-        <v>15.384615384615385</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="J61">
         <f t="shared" ref="J61:J69" si="25">E61/10000</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K61">
         <f t="shared" ref="K61:K69" si="26">F61/20000</f>
@@ -19496,11 +19624,11 @@
       </c>
       <c r="G62" s="5">
         <f t="shared" si="23"/>
-        <v>17000000</v>
+        <v>19000000</v>
       </c>
       <c r="H62">
         <f t="shared" si="24"/>
-        <v>13.333333333333334</v>
+        <v>11.764705882352942</v>
       </c>
       <c r="J62">
         <f t="shared" si="25"/>
@@ -19515,7 +19643,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="27"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="63" spans="3:15" x14ac:dyDescent="0.3">
@@ -19527,7 +19655,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="5">
-        <v>12000000</v>
+        <v>16000000</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="22"/>
@@ -19535,15 +19663,15 @@
       </c>
       <c r="G63" s="5">
         <f t="shared" si="23"/>
-        <v>19000000</v>
+        <v>23000000</v>
       </c>
       <c r="H63">
         <f t="shared" si="24"/>
-        <v>11.764705882352942</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="J63">
         <f t="shared" si="25"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K63">
         <f t="shared" si="26"/>
@@ -19567,15 +19695,15 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <v>9000000</v>
+        <v>10000000</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" si="23"/>
-        <v>21000000</v>
+        <v>26000000</v>
       </c>
       <c r="H64">
         <f t="shared" si="24"/>
-        <v>10.526315789473685</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="J64">
         <f t="shared" si="25"/>
@@ -19583,14 +19711,14 @@
       </c>
       <c r="K64">
         <f t="shared" si="26"/>
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M64">
         <v>59</v>
       </c>
       <c r="O64">
         <f t="shared" si="27"/>
-        <v>1450</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.3">
@@ -19602,7 +19730,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="5">
-        <v>14500000</v>
+        <v>21000000</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="22"/>
@@ -19610,15 +19738,15 @@
       </c>
       <c r="G65" s="5">
         <f t="shared" si="23"/>
-        <v>23500000</v>
+        <v>31000000</v>
       </c>
       <c r="H65">
         <f t="shared" si="24"/>
-        <v>11.904761904761905</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="J65">
         <f t="shared" si="25"/>
-        <v>1450</v>
+        <v>2100</v>
       </c>
       <c r="K65">
         <f t="shared" si="26"/>
@@ -19629,7 +19757,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="27"/>
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.3">
@@ -19642,15 +19770,15 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5">
-        <v>12000000</v>
+        <v>13500000</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="23"/>
-        <v>26500000</v>
+        <v>34500000</v>
       </c>
       <c r="H66">
         <f t="shared" si="24"/>
-        <v>12.76595744680851</v>
+        <v>11.290322580645162</v>
       </c>
       <c r="J66">
         <f t="shared" si="25"/>
@@ -19658,14 +19786,14 @@
       </c>
       <c r="K66">
         <f t="shared" si="26"/>
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="M66">
         <v>61</v>
       </c>
       <c r="O66">
         <f t="shared" si="27"/>
-        <v>1700</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.3">
@@ -19677,7 +19805,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="5">
-        <v>17000000</v>
+        <v>28000000</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="22"/>
@@ -19685,15 +19813,15 @@
       </c>
       <c r="G67" s="5">
         <f t="shared" si="23"/>
-        <v>29000000</v>
+        <v>41500000</v>
       </c>
       <c r="H67">
         <f t="shared" si="24"/>
-        <v>9.433962264150944</v>
+        <v>20.289855072463769</v>
       </c>
       <c r="J67">
         <f t="shared" si="25"/>
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="K67">
         <f t="shared" si="26"/>
@@ -19704,7 +19832,7 @@
       </c>
       <c r="O67">
         <f t="shared" si="27"/>
-        <v>600</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.3">
@@ -19717,15 +19845,15 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5">
-        <v>15000000</v>
+        <v>18000000</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" si="23"/>
-        <v>32000000</v>
+        <v>46000000</v>
       </c>
       <c r="H68">
         <f t="shared" si="24"/>
-        <v>10.344827586206897</v>
+        <v>10.843373493975903</v>
       </c>
       <c r="J68">
         <f t="shared" si="25"/>
@@ -19733,14 +19861,14 @@
       </c>
       <c r="K68">
         <f t="shared" si="26"/>
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M68">
         <v>63</v>
       </c>
       <c r="O68">
         <f t="shared" si="27"/>
-        <v>2000</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="69" spans="3:15" x14ac:dyDescent="0.3">
@@ -19752,7 +19880,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="5">
-        <v>20000000</v>
+        <v>37000000</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="22"/>
@@ -19760,15 +19888,15 @@
       </c>
       <c r="G69" s="5">
         <f t="shared" si="23"/>
-        <v>35000000</v>
+        <v>55000000</v>
       </c>
       <c r="H69">
         <f t="shared" si="24"/>
-        <v>9.375</v>
+        <v>19.565217391304348</v>
       </c>
       <c r="J69">
         <f t="shared" si="25"/>
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="K69">
         <f t="shared" si="26"/>
@@ -19779,7 +19907,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="27"/>
-        <v>750</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F152678D-64D9-451C-98EB-9CB0C8EEA061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEAEEF8-0FA0-4FF8-B25D-E21DD788F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="342">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1314,7 +1314,23 @@
     <t>천상검1</t>
   </si>
   <si>
+    <t>삼천검7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상검2</t>
+  </si>
+  <si>
+    <t>천상노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>천상노리개2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1760,11 +1776,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q291"/>
+  <dimension ref="A1:Q293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H292" sqref="H292"/>
+      <selection pane="bottomLeft" activeCell="H293" sqref="H293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16909,7 +16925,7 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <f t="shared" ref="A285:A291" si="1">ROW()-2</f>
+        <f t="shared" ref="A285:A293" si="1">ROW()-2</f>
         <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -17282,6 +17298,114 @@
         <v>0</v>
       </c>
       <c r="Q291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A292" s="3">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C292" s="3">
+        <v>3</v>
+      </c>
+      <c r="D292" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E292" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F292" s="3">
+        <v>80</v>
+      </c>
+      <c r="G292" s="3">
+        <v>0</v>
+      </c>
+      <c r="H292" s="3">
+        <v>1250</v>
+      </c>
+      <c r="I292" s="3">
+        <v>27</v>
+      </c>
+      <c r="J292" s="3">
+        <v>0</v>
+      </c>
+      <c r="K292" s="3">
+        <v>30</v>
+      </c>
+      <c r="L292" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M292" s="3">
+        <v>0</v>
+      </c>
+      <c r="N292" s="3">
+        <v>0</v>
+      </c>
+      <c r="O292" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P292" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A293" s="3">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C293" s="3">
+        <v>4</v>
+      </c>
+      <c r="D293" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E293" s="3">
+        <v>6700000</v>
+      </c>
+      <c r="F293" s="3">
+        <v>80</v>
+      </c>
+      <c r="G293" s="3">
+        <v>0</v>
+      </c>
+      <c r="H293" s="3">
+        <v>300</v>
+      </c>
+      <c r="I293" s="3">
+        <v>4</v>
+      </c>
+      <c r="J293" s="3">
+        <v>8200000</v>
+      </c>
+      <c r="K293" s="3">
+        <v>465000</v>
+      </c>
+      <c r="L293" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M293" s="3">
+        <v>0</v>
+      </c>
+      <c r="N293" s="3">
+        <v>0</v>
+      </c>
+      <c r="O293" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P293" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q293" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17298,7 +17422,7 @@
   <dimension ref="C5:R69"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19447,7 +19571,7 @@
         <v>52</v>
       </c>
       <c r="N57" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="O57">
         <f t="shared" si="15"/>
@@ -19528,7 +19652,7 @@
         <v>54</v>
       </c>
       <c r="N59" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O59">
         <f t="shared" si="15"/>
@@ -19545,15 +19669,15 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" si="18"/>
-        <v>14000000</v>
+        <v>15000000</v>
       </c>
       <c r="H60">
         <f t="shared" si="19"/>
-        <v>7.6923076923076925</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="J60">
         <f t="shared" si="20"/>
@@ -19561,14 +19685,17 @@
       </c>
       <c r="K60">
         <f t="shared" si="21"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M60">
         <v>55</v>
       </c>
+      <c r="N60" t="s">
+        <v>339</v>
+      </c>
       <c r="O60">
         <f t="shared" si="15"/>
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="61" spans="3:15" x14ac:dyDescent="0.3">
@@ -19580,7 +19707,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="5">
-        <v>12000000</v>
+        <v>12500000</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" ref="F61:F69" si="22">E62/2</f>
@@ -19588,15 +19715,15 @@
       </c>
       <c r="G61" s="5">
         <f t="shared" ref="G61:G69" si="23">IF(D61=1,E61+F60,F61+E60)</f>
-        <v>17000000</v>
+        <v>18500000</v>
       </c>
       <c r="H61">
         <f t="shared" ref="H61:H69" si="24">100*(G61-G60)/G60</f>
-        <v>21.428571428571427</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="J61">
         <f t="shared" ref="J61:J69" si="25">E61/10000</f>
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="K61">
         <f t="shared" ref="K61:K69" si="26">F61/20000</f>
@@ -19605,9 +19732,12 @@
       <c r="M61">
         <v>56</v>
       </c>
+      <c r="N61" t="s">
+        <v>341</v>
+      </c>
       <c r="O61">
         <f t="shared" ref="O61:O69" si="27">IF((MOD(C61,2))=1,J62,K60)</f>
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="3:15" x14ac:dyDescent="0.3">
@@ -19620,15 +19750,15 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5">
-        <v>7000000</v>
+        <v>8500000</v>
       </c>
       <c r="G62" s="5">
         <f t="shared" si="23"/>
-        <v>19000000</v>
+        <v>21000000</v>
       </c>
       <c r="H62">
         <f t="shared" si="24"/>
-        <v>11.764705882352942</v>
+        <v>13.513513513513514</v>
       </c>
       <c r="J62">
         <f t="shared" si="25"/>
@@ -19636,14 +19766,14 @@
       </c>
       <c r="K62">
         <f t="shared" si="26"/>
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="M62">
         <v>57</v>
       </c>
       <c r="O62">
         <f t="shared" si="27"/>
-        <v>1600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="63" spans="3:15" x14ac:dyDescent="0.3">
@@ -19655,7 +19785,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="5">
-        <v>16000000</v>
+        <v>17000000</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="22"/>
@@ -19663,15 +19793,15 @@
       </c>
       <c r="G63" s="5">
         <f t="shared" si="23"/>
-        <v>23000000</v>
+        <v>25500000</v>
       </c>
       <c r="H63">
         <f t="shared" si="24"/>
-        <v>21.05263157894737</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="J63">
         <f t="shared" si="25"/>
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K63">
         <f t="shared" si="26"/>
@@ -19682,7 +19812,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="27"/>
-        <v>350</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="3:15" x14ac:dyDescent="0.3">
@@ -19695,15 +19825,15 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <v>10000000</v>
+        <v>11000000</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" si="23"/>
-        <v>26000000</v>
+        <v>28000000</v>
       </c>
       <c r="H64">
         <f t="shared" si="24"/>
-        <v>13.043478260869565</v>
+        <v>9.8039215686274517</v>
       </c>
       <c r="J64">
         <f t="shared" si="25"/>
@@ -19711,14 +19841,14 @@
       </c>
       <c r="K64">
         <f t="shared" si="26"/>
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M64">
         <v>59</v>
       </c>
       <c r="O64">
         <f t="shared" si="27"/>
-        <v>2100</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.3">
@@ -19730,7 +19860,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="5">
-        <v>21000000</v>
+        <v>23000000</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="22"/>
@@ -19738,15 +19868,15 @@
       </c>
       <c r="G65" s="5">
         <f t="shared" si="23"/>
-        <v>31000000</v>
+        <v>34000000</v>
       </c>
       <c r="H65">
         <f t="shared" si="24"/>
-        <v>19.23076923076923</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="J65">
         <f t="shared" si="25"/>
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="K65">
         <f t="shared" si="26"/>
@@ -19757,7 +19887,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="27"/>
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.3">
@@ -19770,15 +19900,15 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5">
-        <v>13500000</v>
+        <v>15000000</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="23"/>
-        <v>34500000</v>
+        <v>38000000</v>
       </c>
       <c r="H66">
         <f t="shared" si="24"/>
-        <v>11.290322580645162</v>
+        <v>11.764705882352942</v>
       </c>
       <c r="J66">
         <f t="shared" si="25"/>
@@ -19786,7 +19916,7 @@
       </c>
       <c r="K66">
         <f t="shared" si="26"/>
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="M66">
         <v>61</v>
@@ -19813,11 +19943,11 @@
       </c>
       <c r="G67" s="5">
         <f t="shared" si="23"/>
-        <v>41500000</v>
+        <v>43000000</v>
       </c>
       <c r="H67">
         <f t="shared" si="24"/>
-        <v>20.289855072463769</v>
+        <v>13.157894736842104</v>
       </c>
       <c r="J67">
         <f t="shared" si="25"/>
@@ -19832,7 +19962,7 @@
       </c>
       <c r="O67">
         <f t="shared" si="27"/>
-        <v>675</v>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.3">
@@ -19853,7 +19983,7 @@
       </c>
       <c r="H68">
         <f t="shared" si="24"/>
-        <v>10.843373493975903</v>
+        <v>6.9767441860465116</v>
       </c>
       <c r="J68">
         <f t="shared" si="25"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEAEEF8-0FA0-4FF8-B25D-E21DD788F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF5FBC9-1282-4E07-9910-2C102AE00F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="346">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,6 +1330,22 @@
   </si>
   <si>
     <t>천상노리개2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천검8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상노리개3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,11 +1792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q293"/>
+  <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H293" sqref="H293"/>
+      <selection pane="bottomLeft" activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16925,7 +16941,7 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <f t="shared" ref="A285:A293" si="1">ROW()-2</f>
+        <f t="shared" ref="A285:A295" si="1">ROW()-2</f>
         <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -17301,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <f t="shared" si="1"/>
         <v>290</v>
@@ -17406,6 +17422,114 @@
         <v>0</v>
       </c>
       <c r="Q293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3">
+        <f t="shared" si="1"/>
+        <v>292</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C294" s="3">
+        <v>3</v>
+      </c>
+      <c r="D294" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E294" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F294" s="3">
+        <v>80</v>
+      </c>
+      <c r="G294" s="3">
+        <v>0</v>
+      </c>
+      <c r="H294" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I294" s="3">
+        <v>27</v>
+      </c>
+      <c r="J294" s="3">
+        <v>0</v>
+      </c>
+      <c r="K294" s="3">
+        <v>30</v>
+      </c>
+      <c r="L294" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M294" s="3">
+        <v>0</v>
+      </c>
+      <c r="N294" s="3">
+        <v>0</v>
+      </c>
+      <c r="O294" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P294" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A295" s="3">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C295" s="3">
+        <v>4</v>
+      </c>
+      <c r="D295" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E295" s="3">
+        <v>6800000</v>
+      </c>
+      <c r="F295" s="3">
+        <v>80</v>
+      </c>
+      <c r="G295" s="3">
+        <v>0</v>
+      </c>
+      <c r="H295" s="3">
+        <v>425</v>
+      </c>
+      <c r="I295" s="3">
+        <v>4</v>
+      </c>
+      <c r="J295" s="3">
+        <v>8300000</v>
+      </c>
+      <c r="K295" s="3">
+        <v>470000</v>
+      </c>
+      <c r="L295" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M295" s="3">
+        <v>0</v>
+      </c>
+      <c r="N295" s="3">
+        <v>0</v>
+      </c>
+      <c r="O295" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P295" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q295" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17422,7 +17546,7 @@
   <dimension ref="C5:R69"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19771,6 +19895,9 @@
       <c r="M62">
         <v>57</v>
       </c>
+      <c r="N62" t="s">
+        <v>344</v>
+      </c>
       <c r="O62">
         <f t="shared" si="27"/>
         <v>1700</v>
@@ -19809,6 +19936,9 @@
       </c>
       <c r="M63">
         <v>58</v>
+      </c>
+      <c r="N63" t="s">
+        <v>345</v>
       </c>
       <c r="O63">
         <f t="shared" si="27"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF5FBC9-1282-4E07-9910-2C102AE00F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266E0F9-44D3-4FE8-9125-785637884F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="350">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1346,6 +1346,22 @@
   </si>
   <si>
     <t>천상노리개3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천검9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천노리개9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상검4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상노리개4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1792,11 +1808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q295"/>
+  <dimension ref="A1:Q297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C303" sqref="C303"/>
+      <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16941,7 +16957,7 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <f t="shared" ref="A285:A295" si="1">ROW()-2</f>
+        <f t="shared" ref="A285:A297" si="1">ROW()-2</f>
         <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -17530,6 +17546,114 @@
         <v>0</v>
       </c>
       <c r="Q295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C296" s="3">
+        <v>3</v>
+      </c>
+      <c r="D296" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E296" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F296" s="3">
+        <v>80</v>
+      </c>
+      <c r="G296" s="3">
+        <v>0</v>
+      </c>
+      <c r="H296" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I296" s="3">
+        <v>27</v>
+      </c>
+      <c r="J296" s="3">
+        <v>0</v>
+      </c>
+      <c r="K296" s="3">
+        <v>30</v>
+      </c>
+      <c r="L296" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M296" s="3">
+        <v>0</v>
+      </c>
+      <c r="N296" s="3">
+        <v>0</v>
+      </c>
+      <c r="O296" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P296" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A297" s="3">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C297" s="3">
+        <v>4</v>
+      </c>
+      <c r="D297" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E297" s="3">
+        <v>6900000</v>
+      </c>
+      <c r="F297" s="3">
+        <v>80</v>
+      </c>
+      <c r="G297" s="3">
+        <v>0</v>
+      </c>
+      <c r="H297" s="3">
+        <v>550</v>
+      </c>
+      <c r="I297" s="3">
+        <v>4</v>
+      </c>
+      <c r="J297" s="3">
+        <v>8400000</v>
+      </c>
+      <c r="K297" s="3">
+        <v>475000</v>
+      </c>
+      <c r="L297" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M297" s="3">
+        <v>0</v>
+      </c>
+      <c r="N297" s="3">
+        <v>0</v>
+      </c>
+      <c r="O297" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P297" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q297" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17546,7 +17670,7 @@
   <dimension ref="C5:R69"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19976,6 +20100,9 @@
       <c r="M64">
         <v>59</v>
       </c>
+      <c r="N64" t="s">
+        <v>348</v>
+      </c>
       <c r="O64">
         <f t="shared" si="27"/>
         <v>2300</v>
@@ -20014,6 +20141,9 @@
       </c>
       <c r="M65">
         <v>60</v>
+      </c>
+      <c r="N65" t="s">
+        <v>349</v>
       </c>
       <c r="O65">
         <f t="shared" si="27"/>
